--- a/data/GreatLink/GreatLink Income Bond.xlsx
+++ b/data/GreatLink/GreatLink Income Bond.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid472498"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid972533"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="980">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,81 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>10/06/2024</t>
+  </si>
+  <si>
+    <t>0.778</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>0.779</t>
+  </si>
+  <si>
+    <t>06/06/2024</t>
+  </si>
+  <si>
+    <t>05/06/2024</t>
+  </si>
+  <si>
+    <t>04/06/2024</t>
+  </si>
+  <si>
+    <t>0.780</t>
+  </si>
+  <si>
+    <t>03/06/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>30/05/2024</t>
+  </si>
+  <si>
+    <t>0.777</t>
+  </si>
+  <si>
+    <t>29/05/2024</t>
+  </si>
+  <si>
+    <t>28/05/2024</t>
+  </si>
+  <si>
+    <t>27/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>23/05/2024</t>
+  </si>
+  <si>
+    <t>21/05/2024</t>
+  </si>
+  <si>
+    <t>20/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>16/05/2024</t>
+  </si>
+  <si>
+    <t>15/05/2024</t>
+  </si>
+  <si>
+    <t>14/05/2024</t>
+  </si>
+  <si>
     <t>13/05/2024</t>
   </si>
   <si>
-    <t>0.778</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>10/05/2024</t>
   </si>
   <si>
@@ -53,15 +119,9 @@
     <t>03/05/2024</t>
   </si>
   <si>
-    <t>0.779</t>
-  </si>
-  <si>
     <t>02/05/2024</t>
   </si>
   <si>
-    <t>0.777</t>
-  </si>
-  <si>
     <t>30/04/2024</t>
   </si>
   <si>
@@ -180,9 +240,6 @@
   </si>
   <si>
     <t>14/03/2024</t>
-  </si>
-  <si>
-    <t>0.780</t>
   </si>
   <si>
     <t>13/03/2024</t>
@@ -3253,7 +3310,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -3261,10 +3318,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -3272,7 +3329,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -3283,10 +3340,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3294,10 +3351,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3305,10 +3362,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3316,10 +3373,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3327,10 +3384,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3341,7 +3398,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -3349,10 +3406,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -3360,10 +3417,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3371,10 +3428,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3382,10 +3439,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3393,10 +3450,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3404,10 +3461,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3415,10 +3472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3426,10 +3483,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3437,10 +3494,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3448,10 +3505,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3459,10 +3516,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3470,10 +3527,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3481,7 +3538,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
@@ -3492,7 +3549,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
@@ -3503,10 +3560,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3514,10 +3571,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3525,10 +3582,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3536,10 +3593,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3547,10 +3604,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3558,10 +3615,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3569,10 +3626,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3580,10 +3637,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3591,10 +3648,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3602,10 +3659,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3613,10 +3670,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3624,10 +3681,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3635,10 +3692,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3646,10 +3703,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3657,10 +3714,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3668,10 +3725,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3679,10 +3736,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3690,10 +3747,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3701,10 +3758,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3712,10 +3769,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3723,10 +3780,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3734,10 +3791,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3745,10 +3802,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3756,10 +3813,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
         <v>63</v>
-      </c>
-      <c r="B49" t="s">
-        <v>40</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3770,7 +3827,7 @@
         <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3781,7 +3838,7 @@
         <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3792,7 +3849,7 @@
         <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3803,7 +3860,7 @@
         <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3814,7 +3871,7 @@
         <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3825,7 +3882,7 @@
         <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3836,7 +3893,7 @@
         <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3880,7 +3937,7 @@
         <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3891,7 +3948,7 @@
         <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3902,7 +3959,7 @@
         <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3913,7 +3970,7 @@
         <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3924,7 +3981,7 @@
         <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3935,7 +3992,7 @@
         <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3946,7 +4003,7 @@
         <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3957,7 +4014,7 @@
         <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3968,7 +4025,7 @@
         <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3979,7 +4036,7 @@
         <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3987,10 +4044,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3998,10 +4055,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -4009,10 +4066,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -4020,10 +4077,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -4031,10 +4088,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -4042,10 +4099,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -4053,10 +4110,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -4064,10 +4121,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -4075,10 +4132,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -4086,10 +4143,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -4097,10 +4154,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B80" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -4108,10 +4165,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -4119,10 +4176,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -4130,10 +4187,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -4141,10 +4198,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -4152,10 +4209,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -4163,10 +4220,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -4174,10 +4231,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -4185,10 +4242,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -4196,10 +4253,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -4207,10 +4264,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -4218,10 +4275,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B91" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -4229,10 +4286,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -4240,10 +4297,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B93" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -4251,10 +4308,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B94" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -4262,10 +4319,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -4273,10 +4330,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -4284,10 +4341,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B97" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -4295,10 +4352,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B98" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -4306,10 +4363,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B99" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -4317,10 +4374,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B100" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -4328,10 +4385,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -4339,10 +4396,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102" t="s">
         <v>120</v>
-      </c>
-      <c r="B102" t="s">
-        <v>40</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -4353,7 +4410,7 @@
         <v>121</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -4364,7 +4421,7 @@
         <v>122</v>
       </c>
       <c r="B104" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -4375,7 +4432,7 @@
         <v>123</v>
       </c>
       <c r="B105" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -4386,7 +4443,7 @@
         <v>124</v>
       </c>
       <c r="B106" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -4397,7 +4454,7 @@
         <v>125</v>
       </c>
       <c r="B107" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -4408,7 +4465,7 @@
         <v>126</v>
       </c>
       <c r="B108" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -4419,7 +4476,7 @@
         <v>127</v>
       </c>
       <c r="B109" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -4430,7 +4487,7 @@
         <v>128</v>
       </c>
       <c r="B110" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -4438,10 +4495,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B111" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -4449,10 +4506,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B112" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -4460,10 +4517,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B113" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -4471,10 +4528,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B114" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -4482,10 +4539,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B115" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -4493,10 +4550,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B116" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -4504,10 +4561,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B117" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -4515,10 +4572,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B118" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -4526,10 +4583,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B119" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -4537,10 +4594,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -4548,10 +4605,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B121" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -4559,10 +4616,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B122" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -4570,10 +4627,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B123" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -4581,10 +4638,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B124" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -4592,10 +4649,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B125" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -4603,10 +4660,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B126" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -4614,10 +4671,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B127" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -4625,10 +4682,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B128" t="s">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -4636,10 +4693,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B129" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -4647,10 +4704,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B130" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -4658,10 +4715,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B131" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -4669,10 +4726,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B132" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4680,10 +4737,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B133" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4691,10 +4748,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B134" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4702,10 +4759,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B135" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4713,10 +4770,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B136" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4724,10 +4781,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B137" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4735,10 +4792,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B138" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4746,10 +4803,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B139" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4757,10 +4814,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B140" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4768,10 +4825,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B141" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4779,10 +4836,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B142" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4790,10 +4847,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B143" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4801,10 +4858,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B144" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4812,10 +4869,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B145" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4823,10 +4880,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B146" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4834,10 +4891,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B147" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4845,10 +4902,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4856,10 +4913,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B149" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4867,10 +4924,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B150" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4878,10 +4935,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B151" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4889,10 +4946,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B152" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4900,10 +4957,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B153" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4911,10 +4968,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B154" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4922,10 +4979,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B155" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4933,10 +4990,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B156" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4944,10 +5001,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B157" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4955,10 +5012,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B158" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4966,10 +5023,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B159" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4977,10 +5034,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B160" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4988,10 +5045,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B161" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4999,10 +5056,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B162" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -5010,10 +5067,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B163" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -5021,10 +5078,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B164" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -5032,10 +5089,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B165" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -5043,10 +5100,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B166" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -5054,10 +5111,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B167" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -5065,10 +5122,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B168" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -5076,10 +5133,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B169" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -5087,10 +5144,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B170" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -5098,10 +5155,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B171" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -5109,10 +5166,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B172" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -5120,10 +5177,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B173" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -5131,10 +5188,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B174" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -5142,10 +5199,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B175" t="s">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -5153,10 +5210,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B176" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -5164,10 +5221,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B177" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -5175,10 +5232,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B178" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -5186,10 +5243,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B179" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -5197,10 +5254,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B180" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -5208,10 +5265,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B181" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -5219,10 +5276,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
+        <v>217</v>
+      </c>
+      <c r="B182" t="s">
         <v>218</v>
-      </c>
-      <c r="B182" t="s">
-        <v>197</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -5233,7 +5290,7 @@
         <v>219</v>
       </c>
       <c r="B183" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -5244,7 +5301,7 @@
         <v>220</v>
       </c>
       <c r="B184" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -5255,7 +5312,7 @@
         <v>221</v>
       </c>
       <c r="B185" t="s">
-        <v>197</v>
+        <v>47</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -5266,7 +5323,7 @@
         <v>222</v>
       </c>
       <c r="B186" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -5277,7 +5334,7 @@
         <v>223</v>
       </c>
       <c r="B187" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -5288,7 +5345,7 @@
         <v>224</v>
       </c>
       <c r="B188" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -5299,7 +5356,7 @@
         <v>225</v>
       </c>
       <c r="B189" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -5310,7 +5367,7 @@
         <v>226</v>
       </c>
       <c r="B190" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -5321,7 +5378,7 @@
         <v>227</v>
       </c>
       <c r="B191" t="s">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -5332,7 +5389,7 @@
         <v>228</v>
       </c>
       <c r="B192" t="s">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -5343,7 +5400,7 @@
         <v>229</v>
       </c>
       <c r="B193" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -5354,7 +5411,7 @@
         <v>230</v>
       </c>
       <c r="B194" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -5365,7 +5422,7 @@
         <v>231</v>
       </c>
       <c r="B195" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -5376,7 +5433,7 @@
         <v>232</v>
       </c>
       <c r="B196" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -5387,7 +5444,7 @@
         <v>233</v>
       </c>
       <c r="B197" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -5398,7 +5455,7 @@
         <v>234</v>
       </c>
       <c r="B198" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -5409,7 +5466,7 @@
         <v>235</v>
       </c>
       <c r="B199" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -5420,7 +5477,7 @@
         <v>236</v>
       </c>
       <c r="B200" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -5431,7 +5488,7 @@
         <v>237</v>
       </c>
       <c r="B201" t="s">
-        <v>4</v>
+        <v>216</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -5442,7 +5499,7 @@
         <v>238</v>
       </c>
       <c r="B202" t="s">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -5453,7 +5510,7 @@
         <v>239</v>
       </c>
       <c r="B203" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -5464,7 +5521,7 @@
         <v>240</v>
       </c>
       <c r="B204" t="s">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -5475,7 +5532,7 @@
         <v>241</v>
       </c>
       <c r="B205" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -5486,7 +5543,7 @@
         <v>242</v>
       </c>
       <c r="B206" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -5497,7 +5554,7 @@
         <v>243</v>
       </c>
       <c r="B207" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -5508,7 +5565,7 @@
         <v>244</v>
       </c>
       <c r="B208" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -5519,7 +5576,7 @@
         <v>245</v>
       </c>
       <c r="B209" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -5530,7 +5587,7 @@
         <v>246</v>
       </c>
       <c r="B210" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -5541,7 +5598,7 @@
         <v>247</v>
       </c>
       <c r="B211" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -5552,7 +5609,7 @@
         <v>248</v>
       </c>
       <c r="B212" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -5563,7 +5620,7 @@
         <v>249</v>
       </c>
       <c r="B213" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -5574,7 +5631,7 @@
         <v>250</v>
       </c>
       <c r="B214" t="s">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -5585,7 +5642,7 @@
         <v>251</v>
       </c>
       <c r="B215" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -5596,7 +5653,7 @@
         <v>252</v>
       </c>
       <c r="B216" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -5607,7 +5664,7 @@
         <v>253</v>
       </c>
       <c r="B217" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -5618,7 +5675,7 @@
         <v>254</v>
       </c>
       <c r="B218" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -5629,7 +5686,7 @@
         <v>255</v>
       </c>
       <c r="B219" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -5651,7 +5708,7 @@
         <v>257</v>
       </c>
       <c r="B221" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -5662,7 +5719,7 @@
         <v>258</v>
       </c>
       <c r="B222" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -5673,7 +5730,7 @@
         <v>259</v>
       </c>
       <c r="B223" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5684,7 +5741,7 @@
         <v>260</v>
       </c>
       <c r="B224" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5695,7 +5752,7 @@
         <v>261</v>
       </c>
       <c r="B225" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5706,7 +5763,7 @@
         <v>262</v>
       </c>
       <c r="B226" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5717,7 +5774,7 @@
         <v>263</v>
       </c>
       <c r="B227" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5728,7 +5785,7 @@
         <v>264</v>
       </c>
       <c r="B228" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5739,7 +5796,7 @@
         <v>265</v>
       </c>
       <c r="B229" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5750,7 +5807,7 @@
         <v>266</v>
       </c>
       <c r="B230" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5761,7 +5818,7 @@
         <v>267</v>
       </c>
       <c r="B231" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5772,7 +5829,7 @@
         <v>268</v>
       </c>
       <c r="B232" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5783,7 +5840,7 @@
         <v>269</v>
       </c>
       <c r="B233" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5794,7 +5851,7 @@
         <v>270</v>
       </c>
       <c r="B234" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5816,7 +5873,7 @@
         <v>272</v>
       </c>
       <c r="B236" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5827,7 +5884,7 @@
         <v>273</v>
       </c>
       <c r="B237" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5838,7 +5895,7 @@
         <v>274</v>
       </c>
       <c r="B238" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5849,7 +5906,7 @@
         <v>275</v>
       </c>
       <c r="B239" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5860,7 +5917,7 @@
         <v>276</v>
       </c>
       <c r="B240" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5871,7 +5928,7 @@
         <v>277</v>
       </c>
       <c r="B241" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5882,7 +5939,7 @@
         <v>278</v>
       </c>
       <c r="B242" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5893,7 +5950,7 @@
         <v>279</v>
       </c>
       <c r="B243" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5904,7 +5961,7 @@
         <v>280</v>
       </c>
       <c r="B244" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5915,7 +5972,7 @@
         <v>281</v>
       </c>
       <c r="B245" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5926,7 +5983,7 @@
         <v>282</v>
       </c>
       <c r="B246" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5937,7 +5994,7 @@
         <v>283</v>
       </c>
       <c r="B247" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5948,7 +6005,7 @@
         <v>284</v>
       </c>
       <c r="B248" t="s">
-        <v>285</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5956,10 +6013,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B249" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5967,10 +6024,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B250" t="s">
-        <v>289</v>
+        <v>60</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5978,10 +6035,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B251" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5989,10 +6046,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B252" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -6000,10 +6057,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B253" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -6011,10 +6068,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B254" t="s">
-        <v>291</v>
+        <v>60</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -6022,10 +6079,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B255" t="s">
-        <v>289</v>
+        <v>60</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -6033,10 +6090,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B256" t="s">
-        <v>298</v>
+        <v>109</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -6044,10 +6101,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B257" t="s">
-        <v>293</v>
+        <v>120</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -6055,10 +6112,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B258" t="s">
-        <v>293</v>
+        <v>63</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -6066,10 +6123,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B259" t="s">
-        <v>302</v>
+        <v>7</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -6077,10 +6134,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B260" t="s">
-        <v>298</v>
+        <v>60</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -6088,10 +6145,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B261" t="s">
-        <v>298</v>
+        <v>60</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -6099,10 +6156,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B262" t="s">
-        <v>306</v>
+        <v>109</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -6110,10 +6167,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B263" t="s">
-        <v>308</v>
+        <v>109</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -6121,10 +6178,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B264" t="s">
-        <v>293</v>
+        <v>106</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -6132,10 +6189,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B265" t="s">
-        <v>289</v>
+        <v>103</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -6143,10 +6200,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B266" t="s">
-        <v>289</v>
+        <v>103</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -6154,10 +6211,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B267" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -6165,10 +6222,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B268" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -6176,10 +6233,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B269" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -6187,10 +6244,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B270" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -6198,10 +6255,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B271" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -6209,10 +6266,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B272" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -6220,10 +6277,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B273" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -6231,10 +6288,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B274" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -6242,10 +6299,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B275" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -6253,10 +6310,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B276" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -6264,10 +6321,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B277" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -6275,10 +6332,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B278" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -6286,10 +6343,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B279" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -6297,10 +6354,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B280" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -6308,10 +6365,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B281" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -6319,10 +6376,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B282" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -6330,10 +6387,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B283" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -6341,10 +6398,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B284" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -6352,10 +6409,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B285" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -6363,10 +6420,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B286" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -6374,10 +6431,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B287" t="s">
-        <v>84</v>
+        <v>332</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -6385,10 +6442,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B288" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -6396,10 +6453,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B289" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -6407,10 +6464,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B290" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -6418,10 +6475,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B291" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -6429,10 +6486,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B292" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -6440,10 +6497,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B293" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -6451,10 +6508,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B294" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -6462,10 +6519,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B295" t="s">
-        <v>87</v>
+        <v>312</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -6473,10 +6530,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B296" t="s">
-        <v>90</v>
+        <v>312</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -6484,10 +6541,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B297" t="s">
-        <v>84</v>
+        <v>325</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -6495,10 +6552,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B298" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -6506,10 +6563,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B299" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -6517,10 +6574,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B300" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -6528,10 +6585,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B301" t="s">
-        <v>287</v>
+        <v>348</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -6539,10 +6596,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B302" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -6550,10 +6607,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B303" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -6561,10 +6618,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B304" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -6572,10 +6629,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B305" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -6583,10 +6640,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B306" t="s">
-        <v>289</v>
+        <v>103</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -6594,10 +6651,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B307" t="s">
-        <v>287</v>
+        <v>348</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -6605,10 +6662,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B308" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -6616,10 +6673,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B309" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -6627,10 +6684,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B310" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -6638,10 +6695,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B311" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -6649,10 +6706,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B312" t="s">
-        <v>361</v>
+        <v>306</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -6660,10 +6717,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B313" t="s">
-        <v>363</v>
+        <v>304</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -6671,10 +6728,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B314" t="s">
-        <v>363</v>
+        <v>106</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -6682,10 +6739,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B315" t="s">
-        <v>366</v>
+        <v>109</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -6693,10 +6750,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B316" t="s">
-        <v>368</v>
+        <v>103</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -6704,10 +6761,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B317" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -6715,10 +6772,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B318" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -6726,10 +6783,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B319" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -6737,10 +6794,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B320" t="s">
-        <v>375</v>
+        <v>306</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -6748,10 +6805,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B321" t="s">
-        <v>377</v>
+        <v>310</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6759,10 +6816,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B322" t="s">
-        <v>379</v>
+        <v>310</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -6770,10 +6827,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B323" t="s">
-        <v>381</v>
+        <v>308</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6781,10 +6838,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B324" t="s">
-        <v>381</v>
+        <v>308</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6792,10 +6849,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B325" t="s">
-        <v>379</v>
+        <v>308</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6803,10 +6860,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B326" t="s">
-        <v>375</v>
+        <v>306</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6814,10 +6871,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B327" t="s">
-        <v>386</v>
+        <v>317</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6825,10 +6882,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B328" t="s">
-        <v>388</v>
+        <v>312</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6836,10 +6893,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B329" t="s">
-        <v>388</v>
+        <v>312</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6847,10 +6904,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B330" t="s">
-        <v>386</v>
+        <v>327</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6858,10 +6915,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B331" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6869,10 +6926,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B332" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6880,10 +6937,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="B333" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6891,10 +6948,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B334" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6902,10 +6959,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B335" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6913,10 +6970,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B336" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6924,10 +6981,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B337" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6935,10 +6992,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="B338" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6946,10 +7003,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="B339" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6957,10 +7014,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B340" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6968,10 +7025,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B341" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6979,10 +7036,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B342" t="s">
-        <v>308</v>
+        <v>400</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6990,10 +7047,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B343" t="s">
-        <v>308</v>
+        <v>400</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -7001,10 +7058,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B344" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -7012,10 +7069,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B345" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -7023,10 +7080,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B346" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -7034,10 +7091,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B347" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -7045,10 +7102,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B348" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -7056,10 +7113,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B349" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -7067,10 +7124,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B350" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -7078,10 +7135,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B351" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -7089,10 +7146,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B352" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -7100,10 +7157,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B353" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -7111,10 +7168,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B354" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -7122,10 +7179,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B355" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -7133,10 +7190,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B356" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -7144,10 +7201,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B357" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -7155,10 +7212,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B358" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -7166,10 +7223,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B359" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -7177,10 +7234,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B360" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -7188,10 +7245,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B361" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -7199,10 +7256,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B362" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -7210,10 +7267,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B363" t="s">
-        <v>363</v>
+        <v>422</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -7221,10 +7278,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B364" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -7232,10 +7289,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B365" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -7243,10 +7300,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B366" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -7254,10 +7311,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
+        <v>434</v>
+      </c>
+      <c r="B367" t="s">
         <v>435</v>
-      </c>
-      <c r="B367" t="s">
-        <v>403</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -7268,7 +7325,7 @@
         <v>436</v>
       </c>
       <c r="B368" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -7279,7 +7336,7 @@
         <v>437</v>
       </c>
       <c r="B369" t="s">
-        <v>308</v>
+        <v>420</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -7290,7 +7347,7 @@
         <v>438</v>
       </c>
       <c r="B370" t="s">
-        <v>308</v>
+        <v>417</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -7301,7 +7358,7 @@
         <v>439</v>
       </c>
       <c r="B371" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -7312,7 +7369,7 @@
         <v>440</v>
       </c>
       <c r="B372" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -7323,7 +7380,7 @@
         <v>441</v>
       </c>
       <c r="B373" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -7334,7 +7391,7 @@
         <v>442</v>
       </c>
       <c r="B374" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -7345,7 +7402,7 @@
         <v>443</v>
       </c>
       <c r="B375" t="s">
-        <v>302</v>
+        <v>389</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -7356,7 +7413,7 @@
         <v>444</v>
       </c>
       <c r="B376" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -7367,7 +7424,7 @@
         <v>445</v>
       </c>
       <c r="B377" t="s">
-        <v>348</v>
+        <v>431</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -7378,7 +7435,7 @@
         <v>446</v>
       </c>
       <c r="B378" t="s">
-        <v>90</v>
+        <v>431</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -7389,7 +7446,7 @@
         <v>447</v>
       </c>
       <c r="B379" t="s">
-        <v>101</v>
+        <v>420</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -7400,7 +7457,7 @@
         <v>448</v>
       </c>
       <c r="B380" t="s">
-        <v>90</v>
+        <v>392</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -7411,7 +7468,7 @@
         <v>449</v>
       </c>
       <c r="B381" t="s">
-        <v>101</v>
+        <v>387</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -7422,7 +7479,7 @@
         <v>450</v>
       </c>
       <c r="B382" t="s">
-        <v>101</v>
+        <v>382</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -7433,7 +7490,7 @@
         <v>451</v>
       </c>
       <c r="B383" t="s">
-        <v>313</v>
+        <v>425</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -7444,7 +7501,7 @@
         <v>452</v>
       </c>
       <c r="B384" t="s">
-        <v>289</v>
+        <v>385</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -7455,7 +7512,7 @@
         <v>453</v>
       </c>
       <c r="B385" t="s">
-        <v>298</v>
+        <v>385</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -7466,7 +7523,7 @@
         <v>454</v>
       </c>
       <c r="B386" t="s">
-        <v>291</v>
+        <v>422</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -7477,7 +7534,7 @@
         <v>455</v>
       </c>
       <c r="B387" t="s">
-        <v>313</v>
+        <v>422</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -7488,7 +7545,7 @@
         <v>456</v>
       </c>
       <c r="B388" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -7499,7 +7556,7 @@
         <v>457</v>
       </c>
       <c r="B389" t="s">
-        <v>101</v>
+        <v>327</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -7510,7 +7567,7 @@
         <v>458</v>
       </c>
       <c r="B390" t="s">
-        <v>12</v>
+        <v>380</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -7521,7 +7578,7 @@
         <v>459</v>
       </c>
       <c r="B391" t="s">
-        <v>101</v>
+        <v>380</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -7532,7 +7589,7 @@
         <v>460</v>
       </c>
       <c r="B392" t="s">
-        <v>348</v>
+        <v>422</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -7543,7 +7600,7 @@
         <v>461</v>
       </c>
       <c r="B393" t="s">
-        <v>285</v>
+        <v>380</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -7554,7 +7611,7 @@
         <v>462</v>
       </c>
       <c r="B394" t="s">
-        <v>87</v>
+        <v>321</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -7565,7 +7622,7 @@
         <v>463</v>
       </c>
       <c r="B395" t="s">
-        <v>84</v>
+        <v>367</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -7576,7 +7633,7 @@
         <v>464</v>
       </c>
       <c r="B396" t="s">
-        <v>84</v>
+        <v>367</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -7587,7 +7644,7 @@
         <v>465</v>
       </c>
       <c r="B397" t="s">
-        <v>285</v>
+        <v>109</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -7598,7 +7655,7 @@
         <v>466</v>
       </c>
       <c r="B398" t="s">
-        <v>329</v>
+        <v>120</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -7609,7 +7666,7 @@
         <v>467</v>
       </c>
       <c r="B399" t="s">
-        <v>298</v>
+        <v>109</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -7620,7 +7677,7 @@
         <v>468</v>
       </c>
       <c r="B400" t="s">
-        <v>298</v>
+        <v>120</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -7631,7 +7688,7 @@
         <v>469</v>
       </c>
       <c r="B401" t="s">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -7642,7 +7699,7 @@
         <v>470</v>
       </c>
       <c r="B402" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -7653,7 +7710,7 @@
         <v>471</v>
       </c>
       <c r="B403" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -7664,7 +7721,7 @@
         <v>472</v>
       </c>
       <c r="B404" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -7675,7 +7732,7 @@
         <v>473</v>
       </c>
       <c r="B405" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -7686,7 +7743,7 @@
         <v>474</v>
       </c>
       <c r="B406" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7697,7 +7754,7 @@
         <v>475</v>
       </c>
       <c r="B407" t="s">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7708,7 +7765,7 @@
         <v>476</v>
       </c>
       <c r="B408" t="s">
-        <v>306</v>
+        <v>120</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7719,7 +7776,7 @@
         <v>477</v>
       </c>
       <c r="B409" t="s">
-        <v>363</v>
+        <v>7</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -7730,7 +7787,7 @@
         <v>478</v>
       </c>
       <c r="B410" t="s">
-        <v>416</v>
+        <v>120</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -7741,7 +7798,7 @@
         <v>479</v>
       </c>
       <c r="B411" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -7752,7 +7809,7 @@
         <v>480</v>
       </c>
       <c r="B412" t="s">
-        <v>381</v>
+        <v>304</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -7763,7 +7820,7 @@
         <v>481</v>
       </c>
       <c r="B413" t="s">
-        <v>379</v>
+        <v>106</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -7774,7 +7831,7 @@
         <v>482</v>
       </c>
       <c r="B414" t="s">
-        <v>379</v>
+        <v>103</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7785,7 +7842,7 @@
         <v>483</v>
       </c>
       <c r="B415" t="s">
-        <v>379</v>
+        <v>103</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7796,7 +7853,7 @@
         <v>484</v>
       </c>
       <c r="B416" t="s">
-        <v>485</v>
+        <v>304</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7804,10 +7861,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B417" t="s">
-        <v>485</v>
+        <v>348</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7815,10 +7872,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B418" t="s">
-        <v>488</v>
+        <v>317</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7826,10 +7883,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B419" t="s">
-        <v>488</v>
+        <v>317</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7837,10 +7894,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B420" t="s">
-        <v>491</v>
+        <v>321</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7848,10 +7905,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B421" t="s">
-        <v>491</v>
+        <v>327</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7859,10 +7916,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B422" t="s">
-        <v>377</v>
+        <v>317</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7870,10 +7927,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B423" t="s">
-        <v>491</v>
+        <v>327</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7881,10 +7938,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B424" t="s">
-        <v>377</v>
+        <v>317</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7892,10 +7949,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B425" t="s">
-        <v>491</v>
+        <v>325</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7903,10 +7960,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B426" t="s">
-        <v>488</v>
+        <v>332</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7914,10 +7971,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B427" t="s">
-        <v>499</v>
+        <v>325</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7925,10 +7982,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B428" t="s">
-        <v>501</v>
+        <v>382</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7936,10 +7993,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B429" t="s">
-        <v>503</v>
+        <v>435</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7947,10 +8004,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B430" t="s">
-        <v>505</v>
+        <v>400</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7958,10 +8015,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B431" t="s">
-        <v>507</v>
+        <v>400</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7969,10 +8026,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B432" t="s">
-        <v>507</v>
+        <v>398</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7980,10 +8037,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B433" t="s">
-        <v>507</v>
+        <v>398</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7991,10 +8048,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B434" t="s">
-        <v>511</v>
+        <v>398</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -8002,10 +8059,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="B435" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -8013,10 +8070,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B436" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -8024,10 +8081,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B437" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -8035,10 +8092,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B438" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -8046,10 +8103,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="B439" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -8057,10 +8114,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="B440" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -8068,10 +8125,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="B441" t="s">
-        <v>521</v>
+        <v>396</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -8079,10 +8136,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="B442" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -8090,10 +8147,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B443" t="s">
-        <v>515</v>
+        <v>396</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -8101,10 +8158,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B444" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -8112,10 +8169,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="B445" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -8123,10 +8180,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="B446" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -8134,10 +8191,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="B447" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -8145,10 +8202,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="B448" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -8156,10 +8213,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="B449" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -8167,10 +8224,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B450" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -8178,10 +8235,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B451" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -8189,10 +8246,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B452" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -8200,10 +8257,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B453" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -8211,10 +8268,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B454" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -8222,10 +8279,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="B455" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -8233,10 +8290,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="B456" t="s">
-        <v>499</v>
+        <v>536</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -8244,10 +8301,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B457" t="s">
-        <v>488</v>
+        <v>538</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -8255,10 +8312,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B458" t="s">
-        <v>488</v>
+        <v>540</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -8266,10 +8323,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B459" t="s">
-        <v>491</v>
+        <v>540</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -8277,10 +8334,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B460" t="s">
-        <v>491</v>
+        <v>540</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -8288,10 +8345,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B461" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -8299,10 +8356,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="B462" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -8310,10 +8367,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B463" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -8321,10 +8378,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="B464" t="s">
-        <v>488</v>
+        <v>534</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -8332,10 +8389,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B465" t="s">
-        <v>499</v>
+        <v>548</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -8343,10 +8400,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B466" t="s">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -8354,10 +8411,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B467" t="s">
-        <v>499</v>
+        <v>552</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -8365,10 +8422,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B468" t="s">
-        <v>499</v>
+        <v>540</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -8376,10 +8433,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B469" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -8387,10 +8444,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B470" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -8398,10 +8455,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B471" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -8409,10 +8466,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B472" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -8420,10 +8477,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B473" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -8431,10 +8488,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B474" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -8442,10 +8499,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B475" t="s">
-        <v>488</v>
+        <v>518</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -8453,10 +8510,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B476" t="s">
-        <v>567</v>
+        <v>507</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -8464,10 +8521,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B477" t="s">
-        <v>544</v>
+        <v>507</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -8475,10 +8532,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B478" t="s">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -8486,10 +8543,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B479" t="s">
-        <v>567</v>
+        <v>510</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -8497,10 +8554,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B480" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -8508,10 +8565,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B481" t="s">
-        <v>544</v>
+        <v>570</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -8519,10 +8576,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B482" t="s">
-        <v>540</v>
+        <v>573</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -8530,10 +8587,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B483" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -8541,10 +8598,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B484" t="s">
-        <v>578</v>
+        <v>518</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -8552,10 +8609,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B485" t="s">
-        <v>580</v>
+        <v>507</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -8563,10 +8620,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B486" t="s">
-        <v>582</v>
+        <v>518</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -8574,10 +8631,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B487" t="s">
-        <v>584</v>
+        <v>518</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -8585,10 +8642,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B488" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -8596,10 +8653,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B489" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -8607,10 +8664,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B490" t="s">
-        <v>588</v>
+        <v>520</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -8618,10 +8675,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B491" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -8629,10 +8686,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B492" t="s">
-        <v>588</v>
+        <v>520</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -8640,10 +8697,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B493" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -8651,10 +8708,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B494" t="s">
-        <v>594</v>
+        <v>507</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -8662,10 +8719,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B495" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -8673,10 +8730,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B496" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -8684,10 +8741,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="B497" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -8695,10 +8752,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B498" t="s">
-        <v>531</v>
+        <v>586</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -8706,10 +8763,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B499" t="s">
-        <v>519</v>
+        <v>586</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -8717,10 +8774,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B500" t="s">
-        <v>601</v>
+        <v>563</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -8728,10 +8785,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B501" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -8739,10 +8796,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B502" t="s">
-        <v>580</v>
+        <v>552</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -8750,10 +8807,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B503" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -8761,10 +8818,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B504" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -8772,10 +8829,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B505" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8783,10 +8840,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B506" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8794,10 +8851,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B507" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8805,10 +8862,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B508" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8816,10 +8873,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B509" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8827,10 +8884,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B510" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8838,10 +8895,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B511" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8849,10 +8906,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="B512" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8860,10 +8917,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B513" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8871,10 +8928,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B514" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8882,10 +8939,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B515" t="s">
-        <v>623</v>
+        <v>597</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8893,10 +8950,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B516" t="s">
-        <v>625</v>
+        <v>597</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8904,10 +8961,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="B517" t="s">
-        <v>627</v>
+        <v>550</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8915,10 +8972,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="B518" t="s">
-        <v>625</v>
+        <v>538</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8926,10 +8983,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="B519" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8937,10 +8994,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B520" t="s">
-        <v>630</v>
+        <v>599</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8948,10 +9005,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="B521" t="s">
-        <v>625</v>
+        <v>599</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8959,10 +9016,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="B522" t="s">
-        <v>625</v>
+        <v>599</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8970,10 +9027,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="B523" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8981,10 +9038,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="B524" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8992,10 +9049,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B525" t="s">
-        <v>637</v>
+        <v>603</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -9003,10 +9060,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="B526" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -9014,10 +9071,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="B527" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -9025,10 +9082,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="B528" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -9036,10 +9093,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="B529" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -9047,10 +9104,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="B530" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -9058,10 +9115,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="B531" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -9069,10 +9126,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="B532" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -9080,10 +9137,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="B533" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -9091,7 +9148,7 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="B534" t="s">
         <v>642</v>
@@ -9102,10 +9159,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="B535" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -9113,10 +9170,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="B536" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -9124,10 +9181,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B537" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -9135,10 +9192,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="B538" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -9146,10 +9203,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B539" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -9157,10 +9214,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="B540" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -9168,10 +9225,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="B541" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -9179,10 +9236,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="B542" t="s">
-        <v>637</v>
+        <v>654</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -9190,10 +9247,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="B543" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -9201,10 +9258,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="B544" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -9212,10 +9269,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="B545" t="s">
-        <v>642</v>
+        <v>659</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -9223,10 +9280,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="B546" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -9234,10 +9291,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B547" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -9245,10 +9302,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B548" t="s">
-        <v>644</v>
+        <v>665</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -9256,10 +9313,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B549" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -9267,10 +9324,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B550" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -9278,10 +9335,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B551" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -9289,10 +9346,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B552" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C552" t="s">
         <v>5</v>
@@ -9300,10 +9357,10 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B553" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="C553" t="s">
         <v>5</v>
@@ -9311,10 +9368,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B554" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="C554" t="s">
         <v>5</v>
@@ -9322,10 +9379,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B555" t="s">
-        <v>644</v>
+        <v>670</v>
       </c>
       <c r="C555" t="s">
         <v>5</v>
@@ -9333,10 +9390,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B556" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="C556" t="s">
         <v>5</v>
@@ -9344,10 +9401,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B557" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="C557" t="s">
         <v>5</v>
@@ -9355,10 +9412,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B558" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="C558" t="s">
         <v>5</v>
@@ -9366,10 +9423,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B559" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C559" t="s">
         <v>5</v>
@@ -9377,10 +9434,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B560" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="C560" t="s">
         <v>5</v>
@@ -9388,10 +9445,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B561" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
       <c r="C561" t="s">
         <v>5</v>
@@ -9399,10 +9456,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B562" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="C562" t="s">
         <v>5</v>
@@ -9410,10 +9467,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B563" t="s">
-        <v>688</v>
+        <v>661</v>
       </c>
       <c r="C563" t="s">
         <v>5</v>
@@ -9421,10 +9478,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B564" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="C564" t="s">
         <v>5</v>
@@ -9432,10 +9489,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B565" t="s">
-        <v>692</v>
+        <v>661</v>
       </c>
       <c r="C565" t="s">
         <v>5</v>
@@ -9443,10 +9500,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B566" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="C566" t="s">
         <v>5</v>
@@ -9454,10 +9511,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B567" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="C567" t="s">
         <v>5</v>
@@ -9465,10 +9522,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="B568" t="s">
-        <v>694</v>
+        <v>667</v>
       </c>
       <c r="C568" t="s">
         <v>5</v>
@@ -9476,10 +9533,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="B569" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="C569" t="s">
         <v>5</v>
@@ -9487,10 +9544,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B570" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="C570" t="s">
         <v>5</v>
@@ -9498,10 +9555,10 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="B571" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="C571" t="s">
         <v>5</v>
@@ -9509,10 +9566,10 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B572" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="C572" t="s">
         <v>5</v>
@@ -9520,10 +9577,10 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="B573" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="C573" t="s">
         <v>5</v>
@@ -9531,10 +9588,10 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="B574" t="s">
-        <v>707</v>
+        <v>663</v>
       </c>
       <c r="C574" t="s">
         <v>5</v>
@@ -9542,10 +9599,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="B575" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="C575" t="s">
         <v>5</v>
@@ -9553,10 +9610,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="B576" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="C576" t="s">
         <v>5</v>
@@ -9564,10 +9621,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="B577" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="C577" t="s">
         <v>5</v>
@@ -9575,10 +9632,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="B578" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="C578" t="s">
         <v>5</v>
@@ -9586,10 +9643,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="B579" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C579" t="s">
         <v>5</v>
@@ -9597,10 +9654,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="B580" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="C580" t="s">
         <v>5</v>
@@ -9608,10 +9665,10 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="B581" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C581" t="s">
         <v>5</v>
@@ -9619,10 +9676,10 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="B582" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C582" t="s">
         <v>5</v>
@@ -9630,10 +9687,10 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="B583" t="s">
-        <v>718</v>
+        <v>693</v>
       </c>
       <c r="C583" t="s">
         <v>5</v>
@@ -9641,10 +9698,10 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="B584" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="C584" t="s">
         <v>5</v>
@@ -9652,10 +9709,10 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="B585" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C585" t="s">
         <v>5</v>
@@ -9663,10 +9720,10 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="B586" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="C586" t="s">
         <v>5</v>
@@ -9674,10 +9731,10 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="B587" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="C587" t="s">
         <v>5</v>
@@ -9685,10 +9742,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="B588" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="C588" t="s">
         <v>5</v>
@@ -9696,10 +9753,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B589" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="C589" t="s">
         <v>5</v>
@@ -9707,10 +9764,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B590" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="C590" t="s">
         <v>5</v>
@@ -9718,10 +9775,10 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="B591" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="C591" t="s">
         <v>5</v>
@@ -9729,10 +9786,10 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="B592" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="C592" t="s">
         <v>5</v>
@@ -9740,10 +9797,10 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="B593" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="C593" t="s">
         <v>5</v>
@@ -9751,10 +9808,10 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="B594" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="C594" t="s">
         <v>5</v>
@@ -9762,10 +9819,10 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="B595" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="C595" t="s">
         <v>5</v>
@@ -9773,10 +9830,10 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="B596" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="C596" t="s">
         <v>5</v>
@@ -9784,10 +9841,10 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="B597" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C597" t="s">
         <v>5</v>
@@ -9795,10 +9852,10 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="B598" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="C598" t="s">
         <v>5</v>
@@ -9806,10 +9863,10 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="B599" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C599" t="s">
         <v>5</v>
@@ -9817,10 +9874,10 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="B600" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C600" t="s">
         <v>5</v>
@@ -9828,10 +9885,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="B601" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="C601" t="s">
         <v>5</v>
@@ -9839,10 +9896,10 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="B602" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="C602" t="s">
         <v>5</v>
@@ -9850,10 +9907,10 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="B603" t="s">
-        <v>718</v>
+        <v>739</v>
       </c>
       <c r="C603" t="s">
         <v>5</v>
@@ -9861,10 +9918,10 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B604" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="C604" t="s">
         <v>5</v>
@@ -9872,10 +9929,10 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="B605" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="C605" t="s">
         <v>5</v>
@@ -9883,10 +9940,10 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="B606" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C606" t="s">
         <v>5</v>
@@ -9894,10 +9951,10 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B607" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="C607" t="s">
         <v>5</v>
@@ -9905,10 +9962,10 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="B608" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C608" t="s">
         <v>5</v>
@@ -9916,10 +9973,10 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B609" t="s">
-        <v>727</v>
+        <v>748</v>
       </c>
       <c r="C609" t="s">
         <v>5</v>
@@ -9927,10 +9984,10 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B610" t="s">
-        <v>724</v>
+        <v>748</v>
       </c>
       <c r="C610" t="s">
         <v>5</v>
@@ -9938,10 +9995,10 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B611" t="s">
-        <v>720</v>
+        <v>751</v>
       </c>
       <c r="C611" t="s">
         <v>5</v>
@@ -9949,10 +10006,10 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B612" t="s">
-        <v>720</v>
+        <v>753</v>
       </c>
       <c r="C612" t="s">
         <v>5</v>
@@ -9960,10 +10017,10 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B613" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="C613" t="s">
         <v>5</v>
@@ -9971,10 +10028,10 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B614" t="s">
-        <v>727</v>
+        <v>756</v>
       </c>
       <c r="C614" t="s">
         <v>5</v>
@@ -9982,10 +10039,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B615" t="s">
-        <v>724</v>
+        <v>756</v>
       </c>
       <c r="C615" t="s">
         <v>5</v>
@@ -9993,10 +10050,10 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B616" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="C616" t="s">
         <v>5</v>
@@ -10004,10 +10061,10 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B617" t="s">
-        <v>718</v>
+        <v>756</v>
       </c>
       <c r="C617" t="s">
         <v>5</v>
@@ -10015,10 +10072,10 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B618" t="s">
-        <v>732</v>
+        <v>746</v>
       </c>
       <c r="C618" t="s">
         <v>5</v>
@@ -10026,10 +10083,10 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B619" t="s">
-        <v>732</v>
+        <v>746</v>
       </c>
       <c r="C619" t="s">
         <v>5</v>
@@ -10037,10 +10094,10 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B620" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="C620" t="s">
         <v>5</v>
@@ -10048,10 +10105,10 @@
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B621" t="s">
-        <v>765</v>
+        <v>737</v>
       </c>
       <c r="C621" t="s">
         <v>5</v>
@@ -10059,10 +10116,10 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B622" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C622" t="s">
         <v>5</v>
@@ -10070,10 +10127,10 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B623" t="s">
-        <v>729</v>
+        <v>743</v>
       </c>
       <c r="C623" t="s">
         <v>5</v>
@@ -10081,10 +10138,10 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B624" t="s">
-        <v>729</v>
+        <v>767</v>
       </c>
       <c r="C624" t="s">
         <v>5</v>
@@ -10092,10 +10149,10 @@
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B625" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C625" t="s">
         <v>5</v>
@@ -10103,10 +10160,10 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B626" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
       <c r="C626" t="s">
         <v>5</v>
@@ -10114,10 +10171,10 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B627" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C627" t="s">
         <v>5</v>
@@ -10125,10 +10182,10 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B628" t="s">
-        <v>774</v>
+        <v>746</v>
       </c>
       <c r="C628" t="s">
         <v>5</v>
@@ -10136,10 +10193,10 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B629" t="s">
-        <v>774</v>
+        <v>743</v>
       </c>
       <c r="C629" t="s">
         <v>5</v>
@@ -10147,10 +10204,10 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B630" t="s">
-        <v>777</v>
+        <v>739</v>
       </c>
       <c r="C630" t="s">
         <v>5</v>
@@ -10158,10 +10215,10 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B631" t="s">
-        <v>779</v>
+        <v>739</v>
       </c>
       <c r="C631" t="s">
         <v>5</v>
@@ -10169,10 +10226,10 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B632" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="C632" t="s">
         <v>5</v>
@@ -10180,10 +10237,10 @@
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B633" t="s">
-        <v>777</v>
+        <v>746</v>
       </c>
       <c r="C633" t="s">
         <v>5</v>
@@ -10191,10 +10248,10 @@
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B634" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
       <c r="C634" t="s">
         <v>5</v>
@@ -10202,10 +10259,10 @@
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B635" t="s">
-        <v>784</v>
+        <v>767</v>
       </c>
       <c r="C635" t="s">
         <v>5</v>
@@ -10213,10 +10270,10 @@
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B636" t="s">
-        <v>784</v>
+        <v>737</v>
       </c>
       <c r="C636" t="s">
         <v>5</v>
@@ -10224,10 +10281,10 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B637" t="s">
-        <v>784</v>
+        <v>751</v>
       </c>
       <c r="C637" t="s">
         <v>5</v>
@@ -10235,10 +10292,10 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="B638" t="s">
-        <v>779</v>
+        <v>751</v>
       </c>
       <c r="C638" t="s">
         <v>5</v>
@@ -10246,10 +10303,10 @@
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B639" t="s">
-        <v>784</v>
+        <v>753</v>
       </c>
       <c r="C639" t="s">
         <v>5</v>
@@ -10257,10 +10314,10 @@
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B640" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="C640" t="s">
         <v>5</v>
@@ -10268,10 +10325,10 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B641" t="s">
-        <v>784</v>
+        <v>753</v>
       </c>
       <c r="C641" t="s">
         <v>5</v>
@@ -10279,10 +10336,10 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B642" t="s">
-        <v>792</v>
+        <v>748</v>
       </c>
       <c r="C642" t="s">
         <v>5</v>
@@ -10290,10 +10347,10 @@
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B643" t="s">
-        <v>784</v>
+        <v>748</v>
       </c>
       <c r="C643" t="s">
         <v>5</v>
@@ -10301,7 +10358,7 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B644" t="s">
         <v>784</v>
@@ -10312,10 +10369,10 @@
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B645" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C645" t="s">
         <v>5</v>
@@ -10323,10 +10380,10 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B646" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="C646" t="s">
         <v>5</v>
@@ -10334,10 +10391,10 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B647" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="C647" t="s">
         <v>5</v>
@@ -10345,10 +10402,10 @@
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B648" t="s">
-        <v>779</v>
+        <v>793</v>
       </c>
       <c r="C648" t="s">
         <v>5</v>
@@ -10356,10 +10413,10 @@
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B649" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="C649" t="s">
         <v>5</v>
@@ -10367,10 +10424,10 @@
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B650" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C650" t="s">
         <v>5</v>
@@ -10378,10 +10435,10 @@
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B651" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C651" t="s">
         <v>5</v>
@@ -10389,10 +10446,10 @@
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B652" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="C652" t="s">
         <v>5</v>
@@ -10400,10 +10457,10 @@
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B653" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="C653" t="s">
         <v>5</v>
@@ -10411,10 +10468,10 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B654" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C654" t="s">
         <v>5</v>
@@ -10422,10 +10479,10 @@
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B655" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="C655" t="s">
         <v>5</v>
@@ -10433,10 +10490,10 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B656" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="C656" t="s">
         <v>5</v>
@@ -10444,10 +10501,10 @@
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B657" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="C657" t="s">
         <v>5</v>
@@ -10455,10 +10512,10 @@
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B658" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="C658" t="s">
         <v>5</v>
@@ -10466,10 +10523,10 @@
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B659" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="C659" t="s">
         <v>5</v>
@@ -10477,10 +10534,10 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B660" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="C660" t="s">
         <v>5</v>
@@ -10488,10 +10545,10 @@
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B661" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C661" t="s">
         <v>5</v>
@@ -10499,10 +10556,10 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B662" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="C662" t="s">
         <v>5</v>
@@ -10510,10 +10567,10 @@
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B663" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="C663" t="s">
         <v>5</v>
@@ -10521,10 +10578,10 @@
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B664" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C664" t="s">
         <v>5</v>
@@ -10532,10 +10589,10 @@
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B665" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="C665" t="s">
         <v>5</v>
@@ -10543,10 +10600,10 @@
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B666" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="C666" t="s">
         <v>5</v>
@@ -10554,10 +10611,10 @@
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B667" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="C667" t="s">
         <v>5</v>
@@ -10565,10 +10622,10 @@
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B668" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="C668" t="s">
         <v>5</v>
@@ -10576,10 +10633,10 @@
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B669" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="C669" t="s">
         <v>5</v>
@@ -10587,10 +10644,10 @@
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B670" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="C670" t="s">
         <v>5</v>
@@ -10598,10 +10655,10 @@
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B671" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="C671" t="s">
         <v>5</v>
@@ -10609,10 +10666,10 @@
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B672" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C672" t="s">
         <v>5</v>
@@ -10620,10 +10677,10 @@
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B673" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="C673" t="s">
         <v>5</v>
@@ -10631,10 +10688,10 @@
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B674" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C674" t="s">
         <v>5</v>
@@ -10642,10 +10699,10 @@
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B675" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C675" t="s">
         <v>5</v>
@@ -10653,10 +10710,10 @@
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B676" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C676" t="s">
         <v>5</v>
@@ -10664,10 +10721,10 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B677" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C677" t="s">
         <v>5</v>
@@ -10675,10 +10732,10 @@
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B678" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C678" t="s">
         <v>5</v>
@@ -10686,10 +10743,10 @@
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B679" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="C679" t="s">
         <v>5</v>
@@ -10697,10 +10754,10 @@
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B680" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C680" t="s">
         <v>5</v>
@@ -10708,10 +10765,10 @@
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B681" t="s">
-        <v>808</v>
+        <v>831</v>
       </c>
       <c r="C681" t="s">
         <v>5</v>
@@ -10719,10 +10776,10 @@
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B682" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C682" t="s">
         <v>5</v>
@@ -10730,10 +10787,10 @@
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B683" t="s">
-        <v>808</v>
+        <v>829</v>
       </c>
       <c r="C683" t="s">
         <v>5</v>
@@ -10741,10 +10798,10 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B684" t="s">
-        <v>812</v>
+        <v>829</v>
       </c>
       <c r="C684" t="s">
         <v>5</v>
@@ -10752,10 +10809,10 @@
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B685" t="s">
-        <v>810</v>
+        <v>827</v>
       </c>
       <c r="C685" t="s">
         <v>5</v>
@@ -10763,10 +10820,10 @@
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B686" t="s">
-        <v>845</v>
+        <v>827</v>
       </c>
       <c r="C686" t="s">
         <v>5</v>
@@ -10774,10 +10831,10 @@
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B687" t="s">
-        <v>845</v>
+        <v>827</v>
       </c>
       <c r="C687" t="s">
         <v>5</v>
@@ -10785,10 +10842,10 @@
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B688" t="s">
-        <v>810</v>
+        <v>827</v>
       </c>
       <c r="C688" t="s">
         <v>5</v>
@@ -10796,10 +10853,10 @@
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B689" t="s">
-        <v>810</v>
+        <v>827</v>
       </c>
       <c r="C689" t="s">
         <v>5</v>
@@ -10807,10 +10864,10 @@
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B690" t="s">
-        <v>810</v>
+        <v>827</v>
       </c>
       <c r="C690" t="s">
         <v>5</v>
@@ -10818,10 +10875,10 @@
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B691" t="s">
-        <v>812</v>
+        <v>827</v>
       </c>
       <c r="C691" t="s">
         <v>5</v>
@@ -10829,10 +10886,10 @@
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B692" t="s">
-        <v>808</v>
+        <v>827</v>
       </c>
       <c r="C692" t="s">
         <v>5</v>
@@ -10840,10 +10897,10 @@
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B693" t="s">
-        <v>808</v>
+        <v>849</v>
       </c>
       <c r="C693" t="s">
         <v>5</v>
@@ -10851,10 +10908,10 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B694" t="s">
-        <v>808</v>
+        <v>849</v>
       </c>
       <c r="C694" t="s">
         <v>5</v>
@@ -10862,10 +10919,10 @@
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B695" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="C695" t="s">
         <v>5</v>
@@ -10873,10 +10930,10 @@
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B696" t="s">
-        <v>830</v>
+        <v>853</v>
       </c>
       <c r="C696" t="s">
         <v>5</v>
@@ -10884,10 +10941,10 @@
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B697" t="s">
-        <v>830</v>
+        <v>853</v>
       </c>
       <c r="C697" t="s">
         <v>5</v>
@@ -10895,10 +10952,10 @@
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B698" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C698" t="s">
         <v>5</v>
@@ -10906,10 +10963,10 @@
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B699" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="C699" t="s">
         <v>5</v>
@@ -10917,10 +10974,10 @@
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B700" t="s">
-        <v>858</v>
+        <v>827</v>
       </c>
       <c r="C700" t="s">
         <v>5</v>
@@ -10928,10 +10985,10 @@
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B701" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="C701" t="s">
         <v>5</v>
@@ -10939,10 +10996,10 @@
     </row>
     <row r="702">
       <c r="A702" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B702" t="s">
-        <v>860</v>
+        <v>827</v>
       </c>
       <c r="C702" t="s">
         <v>5</v>
@@ -10950,10 +11007,10 @@
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B703" t="s">
-        <v>858</v>
+        <v>831</v>
       </c>
       <c r="C703" t="s">
         <v>5</v>
@@ -10961,10 +11018,10 @@
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B704" t="s">
-        <v>860</v>
+        <v>829</v>
       </c>
       <c r="C704" t="s">
         <v>5</v>
@@ -10972,10 +11029,10 @@
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B705" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C705" t="s">
         <v>5</v>
@@ -10983,10 +11040,10 @@
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B706" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="C706" t="s">
         <v>5</v>
@@ -10994,10 +11051,10 @@
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B707" t="s">
-        <v>860</v>
+        <v>829</v>
       </c>
       <c r="C707" t="s">
         <v>5</v>
@@ -11005,10 +11062,10 @@
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B708" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C708" t="s">
         <v>5</v>
@@ -11016,10 +11073,10 @@
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B709" t="s">
-        <v>860</v>
+        <v>829</v>
       </c>
       <c r="C709" t="s">
         <v>5</v>
@@ -11027,10 +11084,10 @@
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B710" t="s">
-        <v>858</v>
+        <v>831</v>
       </c>
       <c r="C710" t="s">
         <v>5</v>
@@ -11038,10 +11095,10 @@
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B711" t="s">
-        <v>873</v>
+        <v>827</v>
       </c>
       <c r="C711" t="s">
         <v>5</v>
@@ -11049,10 +11106,10 @@
     </row>
     <row r="712">
       <c r="A712" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B712" t="s">
-        <v>873</v>
+        <v>827</v>
       </c>
       <c r="C712" t="s">
         <v>5</v>
@@ -11060,10 +11117,10 @@
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B713" t="s">
-        <v>876</v>
+        <v>827</v>
       </c>
       <c r="C713" t="s">
         <v>5</v>
@@ -11071,10 +11128,10 @@
     </row>
     <row r="714">
       <c r="A714" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B714" t="s">
-        <v>876</v>
+        <v>856</v>
       </c>
       <c r="C714" t="s">
         <v>5</v>
@@ -11082,10 +11139,10 @@
     </row>
     <row r="715">
       <c r="A715" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B715" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="C715" t="s">
         <v>5</v>
@@ -11093,10 +11150,10 @@
     </row>
     <row r="716">
       <c r="A716" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B716" t="s">
-        <v>873</v>
+        <v>849</v>
       </c>
       <c r="C716" t="s">
         <v>5</v>
@@ -11104,10 +11161,10 @@
     </row>
     <row r="717">
       <c r="A717" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B717" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="C717" t="s">
         <v>5</v>
@@ -11115,10 +11172,10 @@
     </row>
     <row r="718">
       <c r="A718" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B718" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="C718" t="s">
         <v>5</v>
@@ -11126,10 +11183,10 @@
     </row>
     <row r="719">
       <c r="A719" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B719" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="C719" t="s">
         <v>5</v>
@@ -11137,10 +11194,10 @@
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B720" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C720" t="s">
         <v>5</v>
@@ -11148,10 +11205,10 @@
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B721" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C721" t="s">
         <v>5</v>
@@ -11159,10 +11216,10 @@
     </row>
     <row r="722">
       <c r="A722" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B722" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="C722" t="s">
         <v>5</v>
@@ -11170,10 +11227,10 @@
     </row>
     <row r="723">
       <c r="A723" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B723" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="C723" t="s">
         <v>5</v>
@@ -11181,10 +11238,10 @@
     </row>
     <row r="724">
       <c r="A724" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="B724" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="C724" t="s">
         <v>5</v>
@@ -11192,10 +11249,10 @@
     </row>
     <row r="725">
       <c r="A725" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="B725" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="C725" t="s">
         <v>5</v>
@@ -11203,10 +11260,10 @@
     </row>
     <row r="726">
       <c r="A726" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B726" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="C726" t="s">
         <v>5</v>
@@ -11214,10 +11271,10 @@
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="B727" t="s">
-        <v>887</v>
+        <v>853</v>
       </c>
       <c r="C727" t="s">
         <v>5</v>
@@ -11225,10 +11282,10 @@
     </row>
     <row r="728">
       <c r="A728" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="B728" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C728" t="s">
         <v>5</v>
@@ -11236,10 +11293,10 @@
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B729" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="C729" t="s">
         <v>5</v>
@@ -11247,10 +11304,10 @@
     </row>
     <row r="730">
       <c r="A730" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B730" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="C730" t="s">
         <v>5</v>
@@ -11258,10 +11315,10 @@
     </row>
     <row r="731">
       <c r="A731" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="B731" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C731" t="s">
         <v>5</v>
@@ -11269,10 +11326,10 @@
     </row>
     <row r="732">
       <c r="A732" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B732" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="C732" t="s">
         <v>5</v>
@@ -11280,10 +11337,10 @@
     </row>
     <row r="733">
       <c r="A733" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B733" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="C733" t="s">
         <v>5</v>
@@ -11291,10 +11348,10 @@
     </row>
     <row r="734">
       <c r="A734" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B734" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="C734" t="s">
         <v>5</v>
@@ -11302,10 +11359,10 @@
     </row>
     <row r="735">
       <c r="A735" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B735" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C735" t="s">
         <v>5</v>
@@ -11313,10 +11370,10 @@
     </row>
     <row r="736">
       <c r="A736" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B736" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C736" t="s">
         <v>5</v>
@@ -11324,10 +11381,10 @@
     </row>
     <row r="737">
       <c r="A737" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B737" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C737" t="s">
         <v>5</v>
@@ -11335,10 +11392,10 @@
     </row>
     <row r="738">
       <c r="A738" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B738" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
       <c r="C738" t="s">
         <v>5</v>
@@ -11346,10 +11403,10 @@
     </row>
     <row r="739">
       <c r="A739" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B739" t="s">
-        <v>887</v>
+        <v>902</v>
       </c>
       <c r="C739" t="s">
         <v>5</v>
@@ -11357,10 +11414,10 @@
     </row>
     <row r="740">
       <c r="A740" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B740" t="s">
-        <v>887</v>
+        <v>902</v>
       </c>
       <c r="C740" t="s">
         <v>5</v>
@@ -11368,10 +11425,10 @@
     </row>
     <row r="741">
       <c r="A741" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B741" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C741" t="s">
         <v>5</v>
@@ -11379,10 +11436,10 @@
     </row>
     <row r="742">
       <c r="A742" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B742" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C742" t="s">
         <v>5</v>
@@ -11390,10 +11447,10 @@
     </row>
     <row r="743">
       <c r="A743" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B743" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C743" t="s">
         <v>5</v>
@@ -11401,10 +11458,10 @@
     </row>
     <row r="744">
       <c r="A744" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B744" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="C744" t="s">
         <v>5</v>
@@ -11412,10 +11469,10 @@
     </row>
     <row r="745">
       <c r="A745" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B745" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="C745" t="s">
         <v>5</v>
@@ -11423,10 +11480,10 @@
     </row>
     <row r="746">
       <c r="A746" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B746" t="s">
-        <v>890</v>
+        <v>906</v>
       </c>
       <c r="C746" t="s">
         <v>5</v>
@@ -11434,10 +11491,10 @@
     </row>
     <row r="747">
       <c r="A747" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B747" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C747" t="s">
         <v>5</v>
@@ -11445,10 +11502,10 @@
     </row>
     <row r="748">
       <c r="A748" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B748" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C748" t="s">
         <v>5</v>
@@ -11456,10 +11513,10 @@
     </row>
     <row r="749">
       <c r="A749" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B749" t="s">
-        <v>887</v>
+        <v>906</v>
       </c>
       <c r="C749" t="s">
         <v>5</v>
@@ -11467,10 +11524,10 @@
     </row>
     <row r="750">
       <c r="A750" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B750" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="C750" t="s">
         <v>5</v>
@@ -11478,10 +11535,10 @@
     </row>
     <row r="751">
       <c r="A751" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B751" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="C751" t="s">
         <v>5</v>
@@ -11489,10 +11546,10 @@
     </row>
     <row r="752">
       <c r="A752" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B752" t="s">
-        <v>890</v>
+        <v>919</v>
       </c>
       <c r="C752" t="s">
         <v>5</v>
@@ -11500,10 +11557,10 @@
     </row>
     <row r="753">
       <c r="A753" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B753" t="s">
-        <v>890</v>
+        <v>909</v>
       </c>
       <c r="C753" t="s">
         <v>5</v>
@@ -11511,10 +11568,10 @@
     </row>
     <row r="754">
       <c r="A754" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B754" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="C754" t="s">
         <v>5</v>
@@ -11522,10 +11579,10 @@
     </row>
     <row r="755">
       <c r="A755" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B755" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="C755" t="s">
         <v>5</v>
@@ -11533,10 +11590,10 @@
     </row>
     <row r="756">
       <c r="A756" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B756" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="C756" t="s">
         <v>5</v>
@@ -11544,10 +11601,10 @@
     </row>
     <row r="757">
       <c r="A757" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B757" t="s">
-        <v>890</v>
+        <v>909</v>
       </c>
       <c r="C757" t="s">
         <v>5</v>
@@ -11555,10 +11612,10 @@
     </row>
     <row r="758">
       <c r="A758" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B758" t="s">
-        <v>887</v>
+        <v>906</v>
       </c>
       <c r="C758" t="s">
         <v>5</v>
@@ -11566,10 +11623,10 @@
     </row>
     <row r="759">
       <c r="A759" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B759" t="s">
-        <v>887</v>
+        <v>906</v>
       </c>
       <c r="C759" t="s">
         <v>5</v>
@@ -11577,10 +11634,10 @@
     </row>
     <row r="760">
       <c r="A760" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B760" t="s">
-        <v>909</v>
+        <v>928</v>
       </c>
       <c r="C760" t="s">
         <v>5</v>
@@ -11588,10 +11645,10 @@
     </row>
     <row r="761">
       <c r="A761" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B761" t="s">
-        <v>912</v>
+        <v>928</v>
       </c>
       <c r="C761" t="s">
         <v>5</v>
@@ -11599,10 +11656,10 @@
     </row>
     <row r="762">
       <c r="A762" t="s">
+        <v>930</v>
+      </c>
+      <c r="B762" t="s">
         <v>931</v>
-      </c>
-      <c r="B762" t="s">
-        <v>932</v>
       </c>
       <c r="C762" t="s">
         <v>5</v>
@@ -11610,10 +11667,10 @@
     </row>
     <row r="763">
       <c r="A763" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B763" t="s">
-        <v>909</v>
+        <v>931</v>
       </c>
       <c r="C763" t="s">
         <v>5</v>
@@ -11621,10 +11678,10 @@
     </row>
     <row r="764">
       <c r="A764" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B764" t="s">
-        <v>912</v>
+        <v>931</v>
       </c>
       <c r="C764" t="s">
         <v>5</v>
@@ -11632,10 +11689,10 @@
     </row>
     <row r="765">
       <c r="A765" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B765" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C765" t="s">
         <v>5</v>
@@ -11643,10 +11700,10 @@
     </row>
     <row r="766">
       <c r="A766" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B766" t="s">
-        <v>900</v>
+        <v>919</v>
       </c>
       <c r="C766" t="s">
         <v>5</v>
@@ -11654,10 +11711,10 @@
     </row>
     <row r="767">
       <c r="A767" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B767" t="s">
-        <v>890</v>
+        <v>919</v>
       </c>
       <c r="C767" t="s">
         <v>5</v>
@@ -11665,10 +11722,10 @@
     </row>
     <row r="768">
       <c r="A768" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B768" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="C768" t="s">
         <v>5</v>
@@ -11676,10 +11733,10 @@
     </row>
     <row r="769">
       <c r="A769" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B769" t="s">
-        <v>890</v>
+        <v>919</v>
       </c>
       <c r="C769" t="s">
         <v>5</v>
@@ -11687,10 +11744,10 @@
     </row>
     <row r="770">
       <c r="A770" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B770" t="s">
-        <v>900</v>
+        <v>919</v>
       </c>
       <c r="C770" t="s">
         <v>5</v>
@@ -11698,10 +11755,10 @@
     </row>
     <row r="771">
       <c r="A771" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B771" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="C771" t="s">
         <v>5</v>
@@ -11709,10 +11766,10 @@
     </row>
     <row r="772">
       <c r="A772" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B772" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="C772" t="s">
         <v>5</v>
@@ -11720,10 +11777,10 @@
     </row>
     <row r="773">
       <c r="A773" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B773" t="s">
-        <v>887</v>
+        <v>919</v>
       </c>
       <c r="C773" t="s">
         <v>5</v>
@@ -11731,10 +11788,10 @@
     </row>
     <row r="774">
       <c r="A774" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B774" t="s">
-        <v>887</v>
+        <v>919</v>
       </c>
       <c r="C774" t="s">
         <v>5</v>
@@ -11742,10 +11799,10 @@
     </row>
     <row r="775">
       <c r="A775" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B775" t="s">
-        <v>883</v>
+        <v>919</v>
       </c>
       <c r="C775" t="s">
         <v>5</v>
@@ -11753,10 +11810,10 @@
     </row>
     <row r="776">
       <c r="A776" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B776" t="s">
-        <v>887</v>
+        <v>909</v>
       </c>
       <c r="C776" t="s">
         <v>5</v>
@@ -11764,10 +11821,10 @@
     </row>
     <row r="777">
       <c r="A777" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B777" t="s">
-        <v>887</v>
+        <v>906</v>
       </c>
       <c r="C777" t="s">
         <v>5</v>
@@ -11775,10 +11832,10 @@
     </row>
     <row r="778">
       <c r="A778" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B778" t="s">
-        <v>887</v>
+        <v>906</v>
       </c>
       <c r="C778" t="s">
         <v>5</v>
@@ -11786,10 +11843,10 @@
     </row>
     <row r="779">
       <c r="A779" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B779" t="s">
-        <v>883</v>
+        <v>928</v>
       </c>
       <c r="C779" t="s">
         <v>5</v>
@@ -11797,10 +11854,10 @@
     </row>
     <row r="780">
       <c r="A780" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B780" t="s">
-        <v>883</v>
+        <v>931</v>
       </c>
       <c r="C780" t="s">
         <v>5</v>
@@ -11808,10 +11865,10 @@
     </row>
     <row r="781">
       <c r="A781" t="s">
+        <v>950</v>
+      </c>
+      <c r="B781" t="s">
         <v>951</v>
-      </c>
-      <c r="B781" t="s">
-        <v>912</v>
       </c>
       <c r="C781" t="s">
         <v>5</v>
@@ -11822,7 +11879,7 @@
         <v>952</v>
       </c>
       <c r="B782" t="s">
-        <v>912</v>
+        <v>928</v>
       </c>
       <c r="C782" t="s">
         <v>5</v>
@@ -11833,7 +11890,7 @@
         <v>953</v>
       </c>
       <c r="B783" t="s">
-        <v>912</v>
+        <v>931</v>
       </c>
       <c r="C783" t="s">
         <v>5</v>
@@ -11844,7 +11901,7 @@
         <v>954</v>
       </c>
       <c r="B784" t="s">
-        <v>912</v>
+        <v>931</v>
       </c>
       <c r="C784" t="s">
         <v>5</v>
@@ -11855,7 +11912,7 @@
         <v>955</v>
       </c>
       <c r="B785" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="C785" t="s">
         <v>5</v>
@@ -11866,7 +11923,7 @@
         <v>956</v>
       </c>
       <c r="B786" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C786" t="s">
         <v>5</v>
@@ -11877,7 +11934,7 @@
         <v>957</v>
       </c>
       <c r="B787" t="s">
-        <v>912</v>
+        <v>931</v>
       </c>
       <c r="C787" t="s">
         <v>5</v>
@@ -11888,7 +11945,7 @@
         <v>958</v>
       </c>
       <c r="B788" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C788" t="s">
         <v>5</v>
@@ -11899,7 +11956,7 @@
         <v>959</v>
       </c>
       <c r="B789" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
       <c r="C789" t="s">
         <v>5</v>
@@ -11910,9 +11967,218 @@
         <v>960</v>
       </c>
       <c r="B790" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
       <c r="C790" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="s">
+        <v>961</v>
+      </c>
+      <c r="B791" t="s">
+        <v>919</v>
+      </c>
+      <c r="C791" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="s">
+        <v>962</v>
+      </c>
+      <c r="B792" t="s">
+        <v>906</v>
+      </c>
+      <c r="C792" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="s">
+        <v>963</v>
+      </c>
+      <c r="B793" t="s">
+        <v>906</v>
+      </c>
+      <c r="C793" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="s">
+        <v>964</v>
+      </c>
+      <c r="B794" t="s">
+        <v>902</v>
+      </c>
+      <c r="C794" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="s">
+        <v>965</v>
+      </c>
+      <c r="B795" t="s">
+        <v>906</v>
+      </c>
+      <c r="C795" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="s">
+        <v>966</v>
+      </c>
+      <c r="B796" t="s">
+        <v>906</v>
+      </c>
+      <c r="C796" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="s">
+        <v>967</v>
+      </c>
+      <c r="B797" t="s">
+        <v>906</v>
+      </c>
+      <c r="C797" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="s">
+        <v>968</v>
+      </c>
+      <c r="B798" t="s">
+        <v>902</v>
+      </c>
+      <c r="C798" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="s">
+        <v>969</v>
+      </c>
+      <c r="B799" t="s">
+        <v>902</v>
+      </c>
+      <c r="C799" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="s">
+        <v>970</v>
+      </c>
+      <c r="B800" t="s">
+        <v>931</v>
+      </c>
+      <c r="C800" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="s">
+        <v>971</v>
+      </c>
+      <c r="B801" t="s">
+        <v>931</v>
+      </c>
+      <c r="C801" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="s">
+        <v>972</v>
+      </c>
+      <c r="B802" t="s">
+        <v>931</v>
+      </c>
+      <c r="C802" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="s">
+        <v>973</v>
+      </c>
+      <c r="B803" t="s">
+        <v>931</v>
+      </c>
+      <c r="C803" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="s">
+        <v>974</v>
+      </c>
+      <c r="B804" t="s">
+        <v>931</v>
+      </c>
+      <c r="C804" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="s">
+        <v>975</v>
+      </c>
+      <c r="B805" t="s">
+        <v>931</v>
+      </c>
+      <c r="C805" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="s">
+        <v>976</v>
+      </c>
+      <c r="B806" t="s">
+        <v>931</v>
+      </c>
+      <c r="C806" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="s">
+        <v>977</v>
+      </c>
+      <c r="B807" t="s">
+        <v>931</v>
+      </c>
+      <c r="C807" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="s">
+        <v>978</v>
+      </c>
+      <c r="B808" t="s">
+        <v>928</v>
+      </c>
+      <c r="C808" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="s">
+        <v>979</v>
+      </c>
+      <c r="B809" t="s">
+        <v>928</v>
+      </c>
+      <c r="C809" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Income Bond.xlsx
+++ b/data/GreatLink/GreatLink Income Bond.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid972533"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid150001"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="994">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,21 +26,72 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>01/07/2024</t>
+  </si>
+  <si>
+    <t>0.783</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>0.779</t>
+  </si>
+  <si>
+    <t>27/06/2024</t>
+  </si>
+  <si>
+    <t>26/06/2024</t>
+  </si>
+  <si>
+    <t>0.780</t>
+  </si>
+  <si>
+    <t>25/06/2024</t>
+  </si>
+  <si>
+    <t>24/06/2024</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>20/06/2024</t>
+  </si>
+  <si>
+    <t>19/06/2024</t>
+  </si>
+  <si>
+    <t>18/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>13/06/2024</t>
+  </si>
+  <si>
+    <t>12/06/2024</t>
+  </si>
+  <si>
+    <t>11/06/2024</t>
+  </si>
+  <si>
+    <t>0.777</t>
+  </si>
+  <si>
     <t>10/06/2024</t>
   </si>
   <si>
     <t>0.778</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>07/06/2024</t>
   </si>
   <si>
-    <t>0.779</t>
-  </si>
-  <si>
     <t>06/06/2024</t>
   </si>
   <si>
@@ -50,9 +101,6 @@
     <t>04/06/2024</t>
   </si>
   <si>
-    <t>0.780</t>
-  </si>
-  <si>
     <t>03/06/2024</t>
   </si>
   <si>
@@ -62,9 +110,6 @@
     <t>30/05/2024</t>
   </si>
   <si>
-    <t>0.777</t>
-  </si>
-  <si>
     <t>29/05/2024</t>
   </si>
   <si>
@@ -375,9 +420,6 @@
   </si>
   <si>
     <t>15/01/2024</t>
-  </si>
-  <si>
-    <t>0.783</t>
   </si>
   <si>
     <t>12/01/2024</t>
@@ -3332,7 +3374,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3340,10 +3382,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3354,7 +3396,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3365,7 +3407,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3376,7 +3418,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3384,10 +3426,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3395,7 +3437,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -3406,10 +3448,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -3417,10 +3459,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3428,7 +3470,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -3439,10 +3481,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
         <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3453,7 +3495,7 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3461,10 +3503,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3472,10 +3514,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3483,10 +3525,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3494,10 +3536,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3505,10 +3547,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3516,10 +3558,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3527,10 +3569,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3538,10 +3580,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3549,10 +3591,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3560,10 +3602,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3571,10 +3613,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3582,10 +3624,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3593,10 +3635,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3607,7 +3649,7 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3615,10 +3657,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3626,10 +3668,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3637,10 +3679,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3648,10 +3690,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3659,10 +3701,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3670,10 +3712,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3681,10 +3723,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3692,10 +3734,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3703,10 +3745,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3714,10 +3756,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3725,10 +3767,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3736,10 +3778,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3747,10 +3789,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3758,10 +3800,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3769,10 +3811,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3780,10 +3822,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3791,10 +3833,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3802,10 +3844,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3813,10 +3855,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3824,10 +3866,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3835,10 +3877,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3846,10 +3888,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3857,10 +3899,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3868,10 +3910,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3879,10 +3921,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3890,10 +3932,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3901,10 +3943,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3912,10 +3954,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3923,10 +3965,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3934,10 +3976,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3945,10 +3987,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="s">
         <v>75</v>
-      </c>
-      <c r="B61" t="s">
-        <v>11</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3959,7 +4001,7 @@
         <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3970,7 +4012,7 @@
         <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3978,10 +4020,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" t="s">
         <v>78</v>
-      </c>
-      <c r="B64" t="s">
-        <v>60</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3989,10 +4031,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -4000,10 +4042,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -4011,10 +4053,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -4022,10 +4064,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -4033,10 +4075,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -4044,10 +4086,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -4055,10 +4097,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -4066,10 +4108,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -4077,10 +4119,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -4088,10 +4130,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -4099,10 +4141,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -4110,10 +4152,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -4121,10 +4163,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -4132,10 +4174,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -4143,10 +4185,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -4154,10 +4196,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -4165,10 +4207,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -4176,10 +4218,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -4187,10 +4229,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -4198,10 +4240,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -4209,10 +4251,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -4220,10 +4262,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -4231,10 +4273,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -4242,10 +4284,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -4256,7 +4298,7 @@
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -4267,7 +4309,7 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -4275,10 +4317,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -4286,10 +4328,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -4297,10 +4339,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -4308,10 +4350,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -4319,10 +4361,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -4330,10 +4372,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -4341,10 +4383,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -4352,10 +4394,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -4363,10 +4405,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -4374,10 +4416,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -4385,10 +4427,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -4396,10 +4438,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -4407,10 +4449,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B103" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -4418,10 +4460,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B104" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -4429,10 +4471,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -4440,10 +4482,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>123</v>
+      </c>
+      <c r="B106" t="s">
         <v>124</v>
-      </c>
-      <c r="B106" t="s">
-        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -4454,7 +4496,7 @@
         <v>125</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -4465,7 +4507,7 @@
         <v>126</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -4476,7 +4518,7 @@
         <v>127</v>
       </c>
       <c r="B109" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -4487,7 +4529,7 @@
         <v>128</v>
       </c>
       <c r="B110" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -4498,7 +4540,7 @@
         <v>129</v>
       </c>
       <c r="B111" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -4509,7 +4551,7 @@
         <v>130</v>
       </c>
       <c r="B112" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -4520,7 +4562,7 @@
         <v>131</v>
       </c>
       <c r="B113" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -4531,7 +4573,7 @@
         <v>132</v>
       </c>
       <c r="B114" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -4542,7 +4584,7 @@
         <v>133</v>
       </c>
       <c r="B115" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -4553,7 +4595,7 @@
         <v>134</v>
       </c>
       <c r="B116" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -4564,7 +4606,7 @@
         <v>135</v>
       </c>
       <c r="B117" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -4575,7 +4617,7 @@
         <v>136</v>
       </c>
       <c r="B118" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -4586,7 +4628,7 @@
         <v>137</v>
       </c>
       <c r="B119" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -4597,7 +4639,7 @@
         <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -4608,7 +4650,7 @@
         <v>139</v>
       </c>
       <c r="B121" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -4619,7 +4661,7 @@
         <v>140</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -4630,7 +4672,7 @@
         <v>141</v>
       </c>
       <c r="B123" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -4641,7 +4683,7 @@
         <v>142</v>
       </c>
       <c r="B124" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -4652,7 +4694,7 @@
         <v>143</v>
       </c>
       <c r="B125" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -4663,7 +4705,7 @@
         <v>144</v>
       </c>
       <c r="B126" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -4674,7 +4716,7 @@
         <v>145</v>
       </c>
       <c r="B127" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -4685,7 +4727,7 @@
         <v>146</v>
       </c>
       <c r="B128" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -4696,7 +4738,7 @@
         <v>147</v>
       </c>
       <c r="B129" t="s">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -4704,10 +4746,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B130" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -4715,10 +4757,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B131" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -4726,10 +4768,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B132" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4737,10 +4779,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B133" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4748,10 +4790,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B134" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4759,10 +4801,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B135" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4770,10 +4812,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B136" t="s">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4781,10 +4823,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B137" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4792,10 +4834,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B138" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4803,10 +4845,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B139" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4814,10 +4856,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B140" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4825,10 +4867,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B141" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4836,10 +4878,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B142" t="s">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4847,10 +4889,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B143" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4858,10 +4900,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B144" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4869,10 +4911,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B145" t="s">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4880,10 +4922,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B146" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4891,10 +4933,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B147" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4902,7 +4944,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B148" t="s">
         <v>168</v>
@@ -4913,10 +4955,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B149" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4924,10 +4966,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B150" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4935,10 +4977,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B151" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4946,10 +4988,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B152" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4957,10 +4999,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B153" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4968,10 +5010,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B154" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4979,10 +5021,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B155" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4990,10 +5032,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B156" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -5001,10 +5043,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B157" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -5012,10 +5054,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B158" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -5023,10 +5065,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B159" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -5034,10 +5076,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B160" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -5045,10 +5087,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B161" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -5056,10 +5098,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B162" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -5067,7 +5109,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B163" t="s">
         <v>179</v>
@@ -5078,10 +5120,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B164" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -5089,10 +5131,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B165" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -5100,10 +5142,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B166" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -5111,10 +5153,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B167" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -5122,10 +5164,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B168" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -5133,10 +5175,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B169" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -5144,10 +5186,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B170" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -5155,10 +5197,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B171" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -5166,10 +5208,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B172" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -5177,10 +5219,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B173" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -5188,10 +5230,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B174" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -5199,10 +5241,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B175" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -5210,10 +5252,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B176" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -5221,10 +5263,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B177" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -5232,10 +5274,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B178" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -5243,10 +5285,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B179" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -5254,10 +5296,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B180" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -5265,10 +5307,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B181" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -5276,10 +5318,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B182" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -5287,10 +5329,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B183" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -5298,10 +5340,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B184" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -5309,10 +5351,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B185" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -5320,10 +5362,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B186" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -5331,10 +5373,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B187" t="s">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -5342,10 +5384,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B188" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -5353,10 +5395,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B189" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -5364,10 +5406,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B190" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -5375,10 +5417,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B191" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -5386,10 +5428,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B192" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -5397,10 +5439,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B193" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -5408,10 +5450,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B194" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -5419,10 +5461,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B195" t="s">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -5430,10 +5472,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
+        <v>231</v>
+      </c>
+      <c r="B196" t="s">
         <v>232</v>
-      </c>
-      <c r="B196" t="s">
-        <v>40</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -5444,7 +5486,7 @@
         <v>233</v>
       </c>
       <c r="B197" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -5455,7 +5497,7 @@
         <v>234</v>
       </c>
       <c r="B198" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -5466,7 +5508,7 @@
         <v>235</v>
       </c>
       <c r="B199" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -5477,7 +5519,7 @@
         <v>236</v>
       </c>
       <c r="B200" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -5488,7 +5530,7 @@
         <v>237</v>
       </c>
       <c r="B201" t="s">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -5499,7 +5541,7 @@
         <v>238</v>
       </c>
       <c r="B202" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -5510,7 +5552,7 @@
         <v>239</v>
       </c>
       <c r="B203" t="s">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -5521,7 +5563,7 @@
         <v>240</v>
       </c>
       <c r="B204" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -5532,7 +5574,7 @@
         <v>241</v>
       </c>
       <c r="B205" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -5543,7 +5585,7 @@
         <v>242</v>
       </c>
       <c r="B206" t="s">
-        <v>49</v>
+        <v>232</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -5554,7 +5596,7 @@
         <v>243</v>
       </c>
       <c r="B207" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -5565,7 +5607,7 @@
         <v>244</v>
       </c>
       <c r="B208" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -5576,7 +5618,7 @@
         <v>245</v>
       </c>
       <c r="B209" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -5587,7 +5629,7 @@
         <v>246</v>
       </c>
       <c r="B210" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -5598,7 +5640,7 @@
         <v>247</v>
       </c>
       <c r="B211" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -5609,7 +5651,7 @@
         <v>248</v>
       </c>
       <c r="B212" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -5620,7 +5662,7 @@
         <v>249</v>
       </c>
       <c r="B213" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -5631,7 +5673,7 @@
         <v>250</v>
       </c>
       <c r="B214" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -5642,7 +5684,7 @@
         <v>251</v>
       </c>
       <c r="B215" t="s">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -5653,7 +5695,7 @@
         <v>252</v>
       </c>
       <c r="B216" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -5664,7 +5706,7 @@
         <v>253</v>
       </c>
       <c r="B217" t="s">
-        <v>4</v>
+        <v>232</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -5675,7 +5717,7 @@
         <v>254</v>
       </c>
       <c r="B218" t="s">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -5686,7 +5728,7 @@
         <v>255</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -5697,7 +5739,7 @@
         <v>256</v>
       </c>
       <c r="B220" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -5708,7 +5750,7 @@
         <v>257</v>
       </c>
       <c r="B221" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -5719,7 +5761,7 @@
         <v>258</v>
       </c>
       <c r="B222" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -5730,7 +5772,7 @@
         <v>259</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5741,7 +5783,7 @@
         <v>260</v>
       </c>
       <c r="B224" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5752,7 +5794,7 @@
         <v>261</v>
       </c>
       <c r="B225" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5763,7 +5805,7 @@
         <v>262</v>
       </c>
       <c r="B226" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5774,7 +5816,7 @@
         <v>263</v>
       </c>
       <c r="B227" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5785,7 +5827,7 @@
         <v>264</v>
       </c>
       <c r="B228" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5796,7 +5838,7 @@
         <v>265</v>
       </c>
       <c r="B229" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5807,7 +5849,7 @@
         <v>266</v>
       </c>
       <c r="B230" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5818,7 +5860,7 @@
         <v>267</v>
       </c>
       <c r="B231" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5829,7 +5871,7 @@
         <v>268</v>
       </c>
       <c r="B232" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5840,7 +5882,7 @@
         <v>269</v>
       </c>
       <c r="B233" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5851,7 +5893,7 @@
         <v>270</v>
       </c>
       <c r="B234" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5862,7 +5904,7 @@
         <v>271</v>
       </c>
       <c r="B235" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5873,7 +5915,7 @@
         <v>272</v>
       </c>
       <c r="B236" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5884,7 +5926,7 @@
         <v>273</v>
       </c>
       <c r="B237" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5895,7 +5937,7 @@
         <v>274</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5906,7 +5948,7 @@
         <v>275</v>
       </c>
       <c r="B239" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5917,7 +5959,7 @@
         <v>276</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5928,7 +5970,7 @@
         <v>277</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5939,7 +5981,7 @@
         <v>278</v>
       </c>
       <c r="B242" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5950,7 +5992,7 @@
         <v>279</v>
       </c>
       <c r="B243" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5961,7 +6003,7 @@
         <v>280</v>
       </c>
       <c r="B244" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5972,7 +6014,7 @@
         <v>281</v>
       </c>
       <c r="B245" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5983,7 +6025,7 @@
         <v>282</v>
       </c>
       <c r="B246" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5994,7 +6036,7 @@
         <v>283</v>
       </c>
       <c r="B247" t="s">
-        <v>60</v>
+        <v>232</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -6005,7 +6047,7 @@
         <v>284</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -6016,7 +6058,7 @@
         <v>285</v>
       </c>
       <c r="B249" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -6027,7 +6069,7 @@
         <v>286</v>
       </c>
       <c r="B250" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -6038,7 +6080,7 @@
         <v>287</v>
       </c>
       <c r="B251" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -6049,7 +6091,7 @@
         <v>288</v>
       </c>
       <c r="B252" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -6060,7 +6102,7 @@
         <v>289</v>
       </c>
       <c r="B253" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -6071,7 +6113,7 @@
         <v>290</v>
       </c>
       <c r="B254" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -6082,7 +6124,7 @@
         <v>291</v>
       </c>
       <c r="B255" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -6093,7 +6135,7 @@
         <v>292</v>
       </c>
       <c r="B256" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -6104,7 +6146,7 @@
         <v>293</v>
       </c>
       <c r="B257" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -6115,7 +6157,7 @@
         <v>294</v>
       </c>
       <c r="B258" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -6126,7 +6168,7 @@
         <v>295</v>
       </c>
       <c r="B259" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -6137,7 +6179,7 @@
         <v>296</v>
       </c>
       <c r="B260" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -6148,7 +6190,7 @@
         <v>297</v>
       </c>
       <c r="B261" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -6159,7 +6201,7 @@
         <v>298</v>
       </c>
       <c r="B262" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -6170,7 +6212,7 @@
         <v>299</v>
       </c>
       <c r="B263" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -6181,7 +6223,7 @@
         <v>300</v>
       </c>
       <c r="B264" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -6192,7 +6234,7 @@
         <v>301</v>
       </c>
       <c r="B265" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -6203,7 +6245,7 @@
         <v>302</v>
       </c>
       <c r="B266" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -6214,7 +6256,7 @@
         <v>303</v>
       </c>
       <c r="B267" t="s">
-        <v>304</v>
+        <v>10</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -6222,10 +6264,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B268" t="s">
-        <v>306</v>
+        <v>75</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -6233,10 +6275,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B269" t="s">
-        <v>308</v>
+        <v>75</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -6244,10 +6286,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B270" t="s">
-        <v>310</v>
+        <v>124</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -6255,10 +6297,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B271" t="s">
-        <v>312</v>
+        <v>4</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -6266,10 +6308,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B272" t="s">
-        <v>312</v>
+        <v>78</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -6277,10 +6319,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B273" t="s">
-        <v>310</v>
+        <v>7</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -6288,10 +6330,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B274" t="s">
-        <v>308</v>
+        <v>75</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -6299,10 +6341,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B275" t="s">
-        <v>317</v>
+        <v>75</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -6310,10 +6352,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B276" t="s">
-        <v>312</v>
+        <v>124</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -6321,10 +6363,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B277" t="s">
-        <v>312</v>
+        <v>124</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -6332,10 +6374,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B278" t="s">
-        <v>321</v>
+        <v>121</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -6343,10 +6385,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B279" t="s">
-        <v>317</v>
+        <v>118</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -6354,10 +6396,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B280" t="s">
-        <v>317</v>
+        <v>118</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -6365,10 +6407,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B281" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -6376,10 +6418,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B282" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -6387,10 +6429,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B283" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -6398,10 +6440,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B284" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -6409,10 +6451,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B285" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -6420,10 +6462,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B286" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -6431,10 +6473,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B287" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -6442,10 +6484,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B288" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -6453,10 +6495,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B289" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -6464,10 +6506,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B290" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -6475,10 +6517,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B291" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -6486,10 +6528,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B292" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -6497,10 +6539,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B293" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -6508,10 +6550,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B294" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -6519,10 +6561,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B295" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -6530,10 +6572,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B296" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -6541,10 +6583,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B297" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -6552,10 +6594,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B298" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -6563,10 +6605,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B299" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -6574,10 +6616,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
+        <v>345</v>
+      </c>
+      <c r="B300" t="s">
         <v>346</v>
-      </c>
-      <c r="B300" t="s">
-        <v>332</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -6588,7 +6630,7 @@
         <v>347</v>
       </c>
       <c r="B301" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -6596,10 +6638,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B302" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -6607,10 +6649,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B303" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -6618,10 +6660,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B304" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -6629,10 +6671,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B305" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -6640,10 +6682,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B306" t="s">
-        <v>103</v>
+        <v>339</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -6651,10 +6693,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B307" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -6662,10 +6704,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B308" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -6673,10 +6715,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B309" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -6684,10 +6726,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B310" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -6695,10 +6737,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B311" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -6706,10 +6748,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B312" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -6717,10 +6759,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B313" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -6728,10 +6770,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B314" t="s">
-        <v>106</v>
+        <v>346</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -6739,10 +6781,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
+        <v>361</v>
+      </c>
+      <c r="B315" t="s">
         <v>362</v>
-      </c>
-      <c r="B315" t="s">
-        <v>109</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -6753,7 +6795,7 @@
         <v>363</v>
       </c>
       <c r="B316" t="s">
-        <v>103</v>
+        <v>362</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -6764,7 +6806,7 @@
         <v>364</v>
       </c>
       <c r="B317" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -6775,7 +6817,7 @@
         <v>365</v>
       </c>
       <c r="B318" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -6786,7 +6828,7 @@
         <v>366</v>
       </c>
       <c r="B319" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -6794,10 +6836,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B320" t="s">
-        <v>306</v>
+        <v>118</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -6805,10 +6847,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B321" t="s">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6816,10 +6858,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B322" t="s">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -6827,10 +6869,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B323" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6838,10 +6880,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B324" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6849,10 +6891,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B325" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6860,10 +6902,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B326" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6871,10 +6913,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B327" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6882,10 +6924,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B328" t="s">
-        <v>312</v>
+        <v>121</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6893,10 +6935,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B329" t="s">
-        <v>312</v>
+        <v>124</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6904,10 +6946,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B330" t="s">
-        <v>327</v>
+        <v>118</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6915,10 +6957,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B331" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6926,10 +6968,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B332" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6937,10 +6979,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B333" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6948,10 +6990,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B334" t="s">
-        <v>385</v>
+        <v>320</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6959,10 +7001,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B335" t="s">
-        <v>387</v>
+        <v>324</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6970,10 +7012,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B336" t="s">
-        <v>389</v>
+        <v>324</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6981,10 +7023,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B337" t="s">
-        <v>387</v>
+        <v>322</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6992,10 +7034,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B338" t="s">
-        <v>392</v>
+        <v>322</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -7003,10 +7045,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B339" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -7014,10 +7056,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B340" t="s">
-        <v>396</v>
+        <v>320</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -7025,10 +7067,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B341" t="s">
-        <v>398</v>
+        <v>331</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -7036,10 +7078,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B342" t="s">
-        <v>400</v>
+        <v>326</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -7047,10 +7089,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B343" t="s">
-        <v>400</v>
+        <v>326</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -7058,10 +7100,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B344" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -7069,7 +7111,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B345" t="s">
         <v>394</v>
@@ -7080,10 +7122,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B346" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -7091,10 +7133,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B347" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -7102,10 +7144,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B348" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -7113,10 +7155,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B349" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -7124,10 +7166,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B350" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -7135,10 +7177,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B351" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -7146,10 +7188,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B352" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -7157,10 +7199,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B353" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -7168,10 +7210,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B354" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -7179,10 +7221,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B355" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -7190,10 +7232,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B356" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -7201,10 +7243,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B357" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -7212,10 +7254,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B358" t="s">
-        <v>380</v>
+        <v>412</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -7223,10 +7265,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B359" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -7234,10 +7276,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B360" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -7245,10 +7287,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B361" t="s">
-        <v>327</v>
+        <v>421</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -7256,10 +7298,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B362" t="s">
-        <v>327</v>
+        <v>421</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -7267,10 +7309,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B363" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -7278,10 +7320,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B364" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -7289,10 +7331,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B365" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -7300,10 +7342,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B366" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -7311,10 +7353,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B367" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -7322,10 +7364,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B368" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -7333,10 +7375,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B369" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -7344,10 +7386,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B370" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -7355,10 +7397,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B371" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -7366,10 +7408,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B372" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -7377,10 +7419,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B373" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -7388,10 +7430,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B374" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -7399,10 +7441,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B375" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -7410,10 +7452,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B376" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -7421,10 +7463,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B377" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -7432,10 +7474,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B378" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -7443,10 +7485,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B379" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -7454,10 +7496,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B380" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -7465,10 +7507,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
+        <v>448</v>
+      </c>
+      <c r="B381" t="s">
         <v>449</v>
-      </c>
-      <c r="B381" t="s">
-        <v>387</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -7479,7 +7521,7 @@
         <v>450</v>
       </c>
       <c r="B382" t="s">
-        <v>382</v>
+        <v>449</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -7490,7 +7532,7 @@
         <v>451</v>
       </c>
       <c r="B383" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -7501,7 +7543,7 @@
         <v>452</v>
       </c>
       <c r="B384" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -7512,7 +7554,7 @@
         <v>453</v>
       </c>
       <c r="B385" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -7523,7 +7565,7 @@
         <v>454</v>
       </c>
       <c r="B386" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -7534,7 +7576,7 @@
         <v>455</v>
       </c>
       <c r="B387" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -7545,7 +7587,7 @@
         <v>456</v>
       </c>
       <c r="B388" t="s">
-        <v>327</v>
+        <v>403</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -7556,7 +7598,7 @@
         <v>457</v>
       </c>
       <c r="B389" t="s">
-        <v>327</v>
+        <v>403</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -7567,7 +7609,7 @@
         <v>458</v>
       </c>
       <c r="B390" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -7578,7 +7620,7 @@
         <v>459</v>
       </c>
       <c r="B391" t="s">
-        <v>380</v>
+        <v>445</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -7589,7 +7631,7 @@
         <v>460</v>
       </c>
       <c r="B392" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -7600,7 +7642,7 @@
         <v>461</v>
       </c>
       <c r="B393" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -7611,7 +7653,7 @@
         <v>462</v>
       </c>
       <c r="B394" t="s">
-        <v>321</v>
+        <v>406</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -7622,7 +7664,7 @@
         <v>463</v>
       </c>
       <c r="B395" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -7633,7 +7675,7 @@
         <v>464</v>
       </c>
       <c r="B396" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -7644,7 +7686,7 @@
         <v>465</v>
       </c>
       <c r="B397" t="s">
-        <v>109</v>
+        <v>439</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -7655,7 +7697,7 @@
         <v>466</v>
       </c>
       <c r="B398" t="s">
-        <v>120</v>
+        <v>399</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -7666,7 +7708,7 @@
         <v>467</v>
       </c>
       <c r="B399" t="s">
-        <v>109</v>
+        <v>399</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -7677,7 +7719,7 @@
         <v>468</v>
       </c>
       <c r="B400" t="s">
-        <v>120</v>
+        <v>436</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -7688,7 +7730,7 @@
         <v>469</v>
       </c>
       <c r="B401" t="s">
-        <v>120</v>
+        <v>436</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -7699,7 +7741,7 @@
         <v>470</v>
       </c>
       <c r="B402" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -7710,7 +7752,7 @@
         <v>471</v>
       </c>
       <c r="B403" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -7721,7 +7763,7 @@
         <v>472</v>
       </c>
       <c r="B404" t="s">
-        <v>317</v>
+        <v>394</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -7732,7 +7774,7 @@
         <v>473</v>
       </c>
       <c r="B405" t="s">
-        <v>310</v>
+        <v>394</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -7743,7 +7785,7 @@
         <v>474</v>
       </c>
       <c r="B406" t="s">
-        <v>332</v>
+        <v>436</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7754,7 +7796,7 @@
         <v>475</v>
       </c>
       <c r="B407" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7765,7 +7807,7 @@
         <v>476</v>
       </c>
       <c r="B408" t="s">
-        <v>120</v>
+        <v>335</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7776,7 +7818,7 @@
         <v>477</v>
       </c>
       <c r="B409" t="s">
-        <v>7</v>
+        <v>381</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -7787,7 +7829,7 @@
         <v>478</v>
       </c>
       <c r="B410" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -7798,7 +7840,7 @@
         <v>479</v>
       </c>
       <c r="B411" t="s">
-        <v>367</v>
+        <v>124</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -7809,7 +7851,7 @@
         <v>480</v>
       </c>
       <c r="B412" t="s">
-        <v>304</v>
+        <v>4</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -7820,7 +7862,7 @@
         <v>481</v>
       </c>
       <c r="B413" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -7831,7 +7873,7 @@
         <v>482</v>
       </c>
       <c r="B414" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7842,7 +7884,7 @@
         <v>483</v>
       </c>
       <c r="B415" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7853,7 +7895,7 @@
         <v>484</v>
       </c>
       <c r="B416" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7864,7 +7906,7 @@
         <v>485</v>
       </c>
       <c r="B417" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7875,7 +7917,7 @@
         <v>486</v>
       </c>
       <c r="B418" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7886,7 +7928,7 @@
         <v>487</v>
       </c>
       <c r="B419" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7897,7 +7939,7 @@
         <v>488</v>
       </c>
       <c r="B420" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7908,7 +7950,7 @@
         <v>489</v>
       </c>
       <c r="B421" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7919,7 +7961,7 @@
         <v>490</v>
       </c>
       <c r="B422" t="s">
-        <v>317</v>
+        <v>4</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7930,7 +7972,7 @@
         <v>491</v>
       </c>
       <c r="B423" t="s">
-        <v>327</v>
+        <v>7</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7941,7 +7983,7 @@
         <v>492</v>
       </c>
       <c r="B424" t="s">
-        <v>317</v>
+        <v>4</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7952,7 +7994,7 @@
         <v>493</v>
       </c>
       <c r="B425" t="s">
-        <v>325</v>
+        <v>381</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7963,7 +8005,7 @@
         <v>494</v>
       </c>
       <c r="B426" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7974,7 +8016,7 @@
         <v>495</v>
       </c>
       <c r="B427" t="s">
-        <v>325</v>
+        <v>121</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7985,7 +8027,7 @@
         <v>496</v>
       </c>
       <c r="B428" t="s">
-        <v>382</v>
+        <v>118</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7996,7 +8038,7 @@
         <v>497</v>
       </c>
       <c r="B429" t="s">
-        <v>435</v>
+        <v>118</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -8007,7 +8049,7 @@
         <v>498</v>
       </c>
       <c r="B430" t="s">
-        <v>400</v>
+        <v>318</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -8018,7 +8060,7 @@
         <v>499</v>
       </c>
       <c r="B431" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -8029,7 +8071,7 @@
         <v>500</v>
       </c>
       <c r="B432" t="s">
-        <v>398</v>
+        <v>331</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -8040,7 +8082,7 @@
         <v>501</v>
       </c>
       <c r="B433" t="s">
-        <v>398</v>
+        <v>331</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -8051,7 +8093,7 @@
         <v>502</v>
       </c>
       <c r="B434" t="s">
-        <v>398</v>
+        <v>335</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -8062,7 +8104,7 @@
         <v>503</v>
       </c>
       <c r="B435" t="s">
-        <v>504</v>
+        <v>341</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -8070,10 +8112,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B436" t="s">
-        <v>504</v>
+        <v>331</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -8081,10 +8123,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B437" t="s">
-        <v>507</v>
+        <v>341</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -8092,10 +8134,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B438" t="s">
-        <v>507</v>
+        <v>331</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -8103,10 +8145,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B439" t="s">
-        <v>510</v>
+        <v>339</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -8114,10 +8156,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B440" t="s">
-        <v>510</v>
+        <v>346</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -8125,10 +8167,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B441" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -8136,10 +8178,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B442" t="s">
-        <v>510</v>
+        <v>396</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -8147,10 +8189,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B443" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -8158,10 +8200,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B444" t="s">
-        <v>510</v>
+        <v>414</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -8169,10 +8211,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B445" t="s">
-        <v>507</v>
+        <v>414</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -8180,10 +8222,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B446" t="s">
-        <v>518</v>
+        <v>412</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -8191,10 +8233,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B447" t="s">
-        <v>520</v>
+        <v>412</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -8202,10 +8244,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B448" t="s">
-        <v>522</v>
+        <v>412</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -8213,10 +8255,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B449" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -8224,10 +8266,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B450" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -8235,10 +8277,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B451" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -8246,10 +8288,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B452" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -8257,10 +8299,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B453" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -8268,10 +8310,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B454" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -8279,10 +8321,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B455" t="s">
-        <v>534</v>
+        <v>410</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -8290,10 +8332,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B456" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -8301,10 +8343,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B457" t="s">
-        <v>538</v>
+        <v>410</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -8312,10 +8354,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B458" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -8323,10 +8365,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="B459" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -8334,10 +8376,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="B460" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -8345,7 +8387,7 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="B461" t="s">
         <v>534</v>
@@ -8356,10 +8398,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B462" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -8367,10 +8409,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B463" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -8378,10 +8420,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B464" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -8389,10 +8431,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B465" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -8400,10 +8442,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B466" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -8411,10 +8453,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B467" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -8422,10 +8464,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B468" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -8433,10 +8475,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B469" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -8444,10 +8486,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B470" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -8455,10 +8497,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B471" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -8466,10 +8508,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B472" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -8477,10 +8519,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B473" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -8488,10 +8530,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B474" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -8499,10 +8541,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B475" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -8510,10 +8552,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B476" t="s">
-        <v>507</v>
+        <v>548</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -8521,10 +8563,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B477" t="s">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -8532,10 +8574,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B478" t="s">
-        <v>510</v>
+        <v>548</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -8543,10 +8585,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B479" t="s">
-        <v>510</v>
+        <v>562</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -8554,10 +8596,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B480" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -8565,10 +8607,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B481" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -8576,10 +8618,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B482" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -8587,10 +8629,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B483" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -8598,10 +8640,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B484" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -8609,10 +8651,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B485" t="s">
-        <v>507</v>
+        <v>544</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -8620,10 +8662,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B486" t="s">
-        <v>518</v>
+        <v>573</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -8631,10 +8673,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B487" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -8642,10 +8684,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B488" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -8653,10 +8695,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B489" t="s">
-        <v>573</v>
+        <v>532</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -8664,10 +8706,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B490" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -8675,10 +8717,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B491" t="s">
-        <v>583</v>
+        <v>521</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -8686,10 +8728,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B492" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -8697,10 +8739,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B493" t="s">
-        <v>586</v>
+        <v>524</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -8708,10 +8750,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B494" t="s">
-        <v>507</v>
+        <v>584</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -8719,10 +8761,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B495" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -8730,10 +8772,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B496" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -8741,10 +8783,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B497" t="s">
-        <v>563</v>
+        <v>521</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -8752,10 +8794,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B498" t="s">
-        <v>586</v>
+        <v>532</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -8763,10 +8805,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B499" t="s">
-        <v>586</v>
+        <v>521</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -8774,10 +8816,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B500" t="s">
-        <v>563</v>
+        <v>532</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -8785,10 +8827,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B501" t="s">
-        <v>559</v>
+        <v>532</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -8796,10 +8838,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B502" t="s">
-        <v>552</v>
+        <v>587</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -8807,10 +8849,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B503" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -8818,10 +8860,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B504" t="s">
-        <v>599</v>
+        <v>534</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -8829,10 +8871,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B505" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8840,10 +8882,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B506" t="s">
-        <v>603</v>
+        <v>534</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8851,10 +8893,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B507" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8862,10 +8904,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B508" t="s">
-        <v>607</v>
+        <v>521</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8873,10 +8915,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B509" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8884,10 +8926,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B510" t="s">
-        <v>607</v>
+        <v>577</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8895,10 +8937,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B511" t="s">
-        <v>607</v>
+        <v>577</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8906,10 +8948,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B512" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8917,10 +8959,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B513" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8928,10 +8970,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B514" t="s">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8939,10 +8981,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B515" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8950,10 +8992,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B516" t="s">
-        <v>597</v>
+        <v>566</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8961,10 +9003,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B517" t="s">
-        <v>550</v>
+        <v>611</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8972,10 +9014,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B518" t="s">
-        <v>538</v>
+        <v>613</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8983,10 +9025,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B519" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8994,10 +9036,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B520" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -9005,10 +9047,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B521" t="s">
-        <v>599</v>
+        <v>619</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -9016,10 +9058,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B522" t="s">
-        <v>599</v>
+        <v>621</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -9027,10 +9069,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B523" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -9038,10 +9080,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B524" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -9049,10 +9091,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B525" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -9060,10 +9102,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B526" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -9071,10 +9113,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B527" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -9082,10 +9124,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B528" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -9093,10 +9135,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B529" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -9104,10 +9146,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B530" t="s">
-        <v>637</v>
+        <v>611</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -9115,10 +9157,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B531" t="s">
-        <v>637</v>
+        <v>564</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -9126,10 +9168,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B532" t="s">
-        <v>637</v>
+        <v>552</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -9137,10 +9179,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B533" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -9148,10 +9190,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B534" t="s">
-        <v>642</v>
+        <v>613</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -9159,10 +9201,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="B535" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -9170,10 +9212,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B536" t="s">
-        <v>646</v>
+        <v>613</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -9181,10 +9223,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="B537" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -9192,10 +9234,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="B538" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -9203,10 +9245,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="B539" t="s">
-        <v>649</v>
+        <v>617</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -9214,10 +9256,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="B540" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -9225,10 +9267,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B541" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -9236,10 +9278,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="B542" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -9247,10 +9289,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B543" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -9258,10 +9300,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B544" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -9269,10 +9311,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B545" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -9280,10 +9322,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="B546" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -9291,10 +9333,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B547" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -9302,10 +9344,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="B548" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -9313,10 +9355,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="B549" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -9324,10 +9366,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="B550" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -9335,10 +9377,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="B551" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -9346,10 +9388,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="B552" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="C552" t="s">
         <v>5</v>
@@ -9357,10 +9399,10 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="B553" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C553" t="s">
         <v>5</v>
@@ -9368,10 +9410,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="B554" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="C554" t="s">
         <v>5</v>
@@ -9379,10 +9421,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="B555" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="C555" t="s">
         <v>5</v>
@@ -9390,10 +9432,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="B556" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C556" t="s">
         <v>5</v>
@@ -9401,10 +9443,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B557" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="C557" t="s">
         <v>5</v>
@@ -9412,10 +9454,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B558" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="C558" t="s">
         <v>5</v>
@@ -9423,10 +9465,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="B559" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C559" t="s">
         <v>5</v>
@@ -9434,10 +9476,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="B560" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C560" t="s">
         <v>5</v>
@@ -9445,10 +9487,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="B561" t="s">
-        <v>656</v>
+        <v>677</v>
       </c>
       <c r="C561" t="s">
         <v>5</v>
@@ -9456,10 +9498,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B562" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="C562" t="s">
         <v>5</v>
@@ -9467,10 +9509,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B563" t="s">
-        <v>661</v>
+        <v>681</v>
       </c>
       <c r="C563" t="s">
         <v>5</v>
@@ -9478,10 +9520,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B564" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="C564" t="s">
         <v>5</v>
@@ -9489,10 +9531,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B565" t="s">
-        <v>661</v>
+        <v>684</v>
       </c>
       <c r="C565" t="s">
         <v>5</v>
@@ -9500,10 +9542,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B566" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="C566" t="s">
         <v>5</v>
@@ -9511,10 +9553,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B567" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="C567" t="s">
         <v>5</v>
@@ -9522,10 +9564,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B568" t="s">
-        <v>667</v>
+        <v>684</v>
       </c>
       <c r="C568" t="s">
         <v>5</v>
@@ -9533,10 +9575,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B569" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="C569" t="s">
         <v>5</v>
@@ -9544,10 +9586,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B570" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="C570" t="s">
         <v>5</v>
@@ -9555,10 +9597,10 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B571" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="C571" t="s">
         <v>5</v>
@@ -9566,10 +9608,10 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B572" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C572" t="s">
         <v>5</v>
@@ -9577,10 +9619,10 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B573" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="C573" t="s">
         <v>5</v>
@@ -9588,10 +9630,10 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B574" t="s">
-        <v>663</v>
+        <v>686</v>
       </c>
       <c r="C574" t="s">
         <v>5</v>
@@ -9599,10 +9641,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B575" t="s">
-        <v>697</v>
+        <v>670</v>
       </c>
       <c r="C575" t="s">
         <v>5</v>
@@ -9610,10 +9652,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B576" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="C576" t="s">
         <v>5</v>
@@ -9621,10 +9663,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B577" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="C577" t="s">
         <v>5</v>
@@ -9632,10 +9674,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B578" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="C578" t="s">
         <v>5</v>
@@ -9643,10 +9685,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B579" t="s">
-        <v>704</v>
+        <v>675</v>
       </c>
       <c r="C579" t="s">
         <v>5</v>
@@ -9654,10 +9696,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B580" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C580" t="s">
         <v>5</v>
@@ -9665,10 +9707,10 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B581" t="s">
-        <v>707</v>
+        <v>677</v>
       </c>
       <c r="C581" t="s">
         <v>5</v>
@@ -9676,10 +9718,10 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B582" t="s">
-        <v>707</v>
+        <v>681</v>
       </c>
       <c r="C582" t="s">
         <v>5</v>
@@ -9687,10 +9729,10 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B583" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="C583" t="s">
         <v>5</v>
@@ -9698,10 +9740,10 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B584" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C584" t="s">
         <v>5</v>
@@ -9709,10 +9751,10 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B585" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C585" t="s">
         <v>5</v>
@@ -9720,10 +9762,10 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B586" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C586" t="s">
         <v>5</v>
@@ -9731,10 +9773,10 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B587" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C587" t="s">
         <v>5</v>
@@ -9742,10 +9784,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B588" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="C588" t="s">
         <v>5</v>
@@ -9753,10 +9795,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B589" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="C589" t="s">
         <v>5</v>
@@ -9764,10 +9806,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="B590" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="C590" t="s">
         <v>5</v>
@@ -9775,10 +9817,10 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="B591" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="C591" t="s">
         <v>5</v>
@@ -9786,10 +9828,10 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="B592" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="C592" t="s">
         <v>5</v>
@@ -9797,10 +9839,10 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="B593" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="C593" t="s">
         <v>5</v>
@@ -9808,10 +9850,10 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="B594" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="C594" t="s">
         <v>5</v>
@@ -9819,10 +9861,10 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B595" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C595" t="s">
         <v>5</v>
@@ -9830,10 +9872,10 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="B596" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C596" t="s">
         <v>5</v>
@@ -9841,10 +9883,10 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="B597" t="s">
-        <v>731</v>
+        <v>707</v>
       </c>
       <c r="C597" t="s">
         <v>5</v>
@@ -9852,10 +9894,10 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="B598" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C598" t="s">
         <v>5</v>
@@ -9863,10 +9905,10 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="B599" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C599" t="s">
         <v>5</v>
@@ -9874,10 +9916,10 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="B600" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="C600" t="s">
         <v>5</v>
@@ -9885,10 +9927,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="B601" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C601" t="s">
         <v>5</v>
@@ -9896,10 +9938,10 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="B602" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C602" t="s">
         <v>5</v>
@@ -9907,10 +9949,10 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="B603" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="C603" t="s">
         <v>5</v>
@@ -9918,10 +9960,10 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B604" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C604" t="s">
         <v>5</v>
@@ -9929,10 +9971,10 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B605" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C605" t="s">
         <v>5</v>
@@ -9940,10 +9982,10 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B606" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C606" t="s">
         <v>5</v>
@@ -9951,10 +9993,10 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B607" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C607" t="s">
         <v>5</v>
@@ -9962,10 +10004,10 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B608" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="C608" t="s">
         <v>5</v>
@@ -9973,10 +10015,10 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B609" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="C609" t="s">
         <v>5</v>
@@ -9984,10 +10026,10 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="B610" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="C610" t="s">
         <v>5</v>
@@ -9995,10 +10037,10 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B611" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="C611" t="s">
         <v>5</v>
@@ -10006,10 +10048,10 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B612" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="C612" t="s">
         <v>5</v>
@@ -10017,10 +10059,10 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="B613" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="C613" t="s">
         <v>5</v>
@@ -10028,10 +10070,10 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B614" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="C614" t="s">
         <v>5</v>
@@ -10039,10 +10081,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="B615" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="C615" t="s">
         <v>5</v>
@@ -10050,10 +10092,10 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="B616" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C616" t="s">
         <v>5</v>
@@ -10061,10 +10103,10 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="B617" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C617" t="s">
         <v>5</v>
@@ -10072,10 +10114,10 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="B618" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C618" t="s">
         <v>5</v>
@@ -10083,10 +10125,10 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B619" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="C619" t="s">
         <v>5</v>
@@ -10094,10 +10136,10 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="B620" t="s">
-        <v>743</v>
+        <v>757</v>
       </c>
       <c r="C620" t="s">
         <v>5</v>
@@ -10105,10 +10147,10 @@
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B621" t="s">
-        <v>737</v>
+        <v>757</v>
       </c>
       <c r="C621" t="s">
         <v>5</v>
@@ -10116,10 +10158,10 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B622" t="s">
-        <v>737</v>
+        <v>760</v>
       </c>
       <c r="C622" t="s">
         <v>5</v>
@@ -10127,10 +10169,10 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B623" t="s">
-        <v>743</v>
+        <v>762</v>
       </c>
       <c r="C623" t="s">
         <v>5</v>
@@ -10138,10 +10180,10 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B624" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="C624" t="s">
         <v>5</v>
@@ -10149,10 +10191,10 @@
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B625" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C625" t="s">
         <v>5</v>
@@ -10160,10 +10202,10 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B626" t="s">
-        <v>743</v>
+        <v>767</v>
       </c>
       <c r="C626" t="s">
         <v>5</v>
@@ -10171,7 +10213,7 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B627" t="s">
         <v>767</v>
@@ -10182,10 +10224,10 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B628" t="s">
-        <v>746</v>
+        <v>770</v>
       </c>
       <c r="C628" t="s">
         <v>5</v>
@@ -10193,10 +10235,10 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B629" t="s">
-        <v>743</v>
+        <v>770</v>
       </c>
       <c r="C629" t="s">
         <v>5</v>
@@ -10204,10 +10246,10 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B630" t="s">
-        <v>739</v>
+        <v>770</v>
       </c>
       <c r="C630" t="s">
         <v>5</v>
@@ -10215,10 +10257,10 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B631" t="s">
-        <v>739</v>
+        <v>770</v>
       </c>
       <c r="C631" t="s">
         <v>5</v>
@@ -10226,10 +10268,10 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B632" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="C632" t="s">
         <v>5</v>
@@ -10237,10 +10279,10 @@
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B633" t="s">
-        <v>746</v>
+        <v>760</v>
       </c>
       <c r="C633" t="s">
         <v>5</v>
@@ -10248,10 +10290,10 @@
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B634" t="s">
-        <v>743</v>
+        <v>757</v>
       </c>
       <c r="C634" t="s">
         <v>5</v>
@@ -10259,10 +10301,10 @@
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B635" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="C635" t="s">
         <v>5</v>
@@ -10270,10 +10312,10 @@
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B636" t="s">
-        <v>737</v>
+        <v>751</v>
       </c>
       <c r="C636" t="s">
         <v>5</v>
@@ -10281,10 +10323,10 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B637" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="C637" t="s">
         <v>5</v>
@@ -10292,10 +10334,10 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
+        <v>780</v>
+      </c>
+      <c r="B638" t="s">
         <v>781</v>
-      </c>
-      <c r="B638" t="s">
-        <v>751</v>
       </c>
       <c r="C638" t="s">
         <v>5</v>
@@ -10306,7 +10348,7 @@
         <v>782</v>
       </c>
       <c r="B639" t="s">
-        <v>753</v>
+        <v>781</v>
       </c>
       <c r="C639" t="s">
         <v>5</v>
@@ -10317,7 +10359,7 @@
         <v>783</v>
       </c>
       <c r="B640" t="s">
-        <v>784</v>
+        <v>757</v>
       </c>
       <c r="C640" t="s">
         <v>5</v>
@@ -10325,10 +10367,10 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B641" t="s">
-        <v>753</v>
+        <v>781</v>
       </c>
       <c r="C641" t="s">
         <v>5</v>
@@ -10336,10 +10378,10 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B642" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="C642" t="s">
         <v>5</v>
@@ -10347,10 +10389,10 @@
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B643" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="C643" t="s">
         <v>5</v>
@@ -10358,10 +10400,10 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B644" t="s">
-        <v>784</v>
+        <v>753</v>
       </c>
       <c r="C644" t="s">
         <v>5</v>
@@ -10369,10 +10411,10 @@
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B645" t="s">
-        <v>790</v>
+        <v>753</v>
       </c>
       <c r="C645" t="s">
         <v>5</v>
@@ -10380,10 +10422,10 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B646" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="C646" t="s">
         <v>5</v>
@@ -10391,10 +10433,10 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B647" t="s">
-        <v>793</v>
+        <v>760</v>
       </c>
       <c r="C647" t="s">
         <v>5</v>
@@ -10402,10 +10444,10 @@
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B648" t="s">
-        <v>793</v>
+        <v>757</v>
       </c>
       <c r="C648" t="s">
         <v>5</v>
@@ -10413,10 +10455,10 @@
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B649" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="C649" t="s">
         <v>5</v>
@@ -10424,10 +10466,10 @@
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B650" t="s">
-        <v>798</v>
+        <v>751</v>
       </c>
       <c r="C650" t="s">
         <v>5</v>
@@ -10435,10 +10477,10 @@
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B651" t="s">
-        <v>793</v>
+        <v>765</v>
       </c>
       <c r="C651" t="s">
         <v>5</v>
@@ -10446,10 +10488,10 @@
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B652" t="s">
-        <v>796</v>
+        <v>765</v>
       </c>
       <c r="C652" t="s">
         <v>5</v>
@@ -10457,10 +10499,10 @@
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B653" t="s">
-        <v>798</v>
+        <v>767</v>
       </c>
       <c r="C653" t="s">
         <v>5</v>
@@ -10468,10 +10510,10 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B654" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C654" t="s">
         <v>5</v>
@@ -10479,10 +10521,10 @@
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B655" t="s">
-        <v>803</v>
+        <v>767</v>
       </c>
       <c r="C655" t="s">
         <v>5</v>
@@ -10490,10 +10532,10 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B656" t="s">
-        <v>803</v>
+        <v>762</v>
       </c>
       <c r="C656" t="s">
         <v>5</v>
@@ -10501,10 +10543,10 @@
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B657" t="s">
-        <v>798</v>
+        <v>762</v>
       </c>
       <c r="C657" t="s">
         <v>5</v>
@@ -10512,10 +10554,10 @@
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B658" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C658" t="s">
         <v>5</v>
@@ -10523,10 +10565,10 @@
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B659" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="C659" t="s">
         <v>5</v>
@@ -10534,10 +10576,10 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B660" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C660" t="s">
         <v>5</v>
@@ -10545,10 +10587,10 @@
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B661" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C661" t="s">
         <v>5</v>
@@ -10556,10 +10598,10 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B662" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C662" t="s">
         <v>5</v>
@@ -10567,10 +10609,10 @@
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B663" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="C663" t="s">
         <v>5</v>
@@ -10578,10 +10620,10 @@
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B664" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C664" t="s">
         <v>5</v>
@@ -10589,10 +10631,10 @@
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B665" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="C665" t="s">
         <v>5</v>
@@ -10600,10 +10642,10 @@
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B666" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="C666" t="s">
         <v>5</v>
@@ -10611,10 +10653,10 @@
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B667" t="s">
-        <v>798</v>
+        <v>812</v>
       </c>
       <c r="C667" t="s">
         <v>5</v>
@@ -10622,10 +10664,10 @@
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B668" t="s">
-        <v>803</v>
+        <v>817</v>
       </c>
       <c r="C668" t="s">
         <v>5</v>
@@ -10633,10 +10675,10 @@
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B669" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C669" t="s">
         <v>5</v>
@@ -10644,10 +10686,10 @@
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B670" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C670" t="s">
         <v>5</v>
@@ -10655,10 +10697,10 @@
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B671" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C671" t="s">
         <v>5</v>
@@ -10666,10 +10708,10 @@
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B672" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="C672" t="s">
         <v>5</v>
@@ -10677,10 +10719,10 @@
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B673" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C673" t="s">
         <v>5</v>
@@ -10688,10 +10730,10 @@
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B674" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="C674" t="s">
         <v>5</v>
@@ -10699,10 +10741,10 @@
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B675" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="C675" t="s">
         <v>5</v>
@@ -10710,10 +10752,10 @@
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B676" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="C676" t="s">
         <v>5</v>
@@ -10721,10 +10763,10 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B677" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="C677" t="s">
         <v>5</v>
@@ -10732,10 +10774,10 @@
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B678" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C678" t="s">
         <v>5</v>
@@ -10743,10 +10785,10 @@
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B679" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C679" t="s">
         <v>5</v>
@@ -10754,10 +10796,10 @@
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B680" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="C680" t="s">
         <v>5</v>
@@ -10765,10 +10807,10 @@
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B681" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
       <c r="C681" t="s">
         <v>5</v>
@@ -10776,10 +10818,10 @@
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B682" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="C682" t="s">
         <v>5</v>
@@ -10787,10 +10829,10 @@
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B683" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C683" t="s">
         <v>5</v>
@@ -10798,10 +10840,10 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B684" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C684" t="s">
         <v>5</v>
@@ -10809,10 +10851,10 @@
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B685" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="C685" t="s">
         <v>5</v>
@@ -10820,10 +10862,10 @@
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B686" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C686" t="s">
         <v>5</v>
@@ -10831,10 +10873,10 @@
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B687" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="C687" t="s">
         <v>5</v>
@@ -10842,10 +10884,10 @@
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B688" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
       <c r="C688" t="s">
         <v>5</v>
@@ -10853,10 +10895,10 @@
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B689" t="s">
-        <v>827</v>
+        <v>843</v>
       </c>
       <c r="C689" t="s">
         <v>5</v>
@@ -10864,10 +10906,10 @@
     </row>
     <row r="690">
       <c r="A690" t="s">
+        <v>844</v>
+      </c>
+      <c r="B690" t="s">
         <v>845</v>
-      </c>
-      <c r="B690" t="s">
-        <v>827</v>
       </c>
       <c r="C690" t="s">
         <v>5</v>
@@ -10878,7 +10920,7 @@
         <v>846</v>
       </c>
       <c r="B691" t="s">
-        <v>827</v>
+        <v>843</v>
       </c>
       <c r="C691" t="s">
         <v>5</v>
@@ -10889,7 +10931,7 @@
         <v>847</v>
       </c>
       <c r="B692" t="s">
-        <v>827</v>
+        <v>845</v>
       </c>
       <c r="C692" t="s">
         <v>5</v>
@@ -10900,7 +10942,7 @@
         <v>848</v>
       </c>
       <c r="B693" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C693" t="s">
         <v>5</v>
@@ -10908,10 +10950,10 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B694" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C694" t="s">
         <v>5</v>
@@ -10919,10 +10961,10 @@
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B695" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C695" t="s">
         <v>5</v>
@@ -10930,10 +10972,10 @@
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B696" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="C696" t="s">
         <v>5</v>
@@ -10941,10 +10983,10 @@
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B697" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="C697" t="s">
         <v>5</v>
@@ -10952,10 +10994,10 @@
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B698" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="C698" t="s">
         <v>5</v>
@@ -10963,10 +11005,10 @@
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B699" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="C699" t="s">
         <v>5</v>
@@ -10974,10 +11016,10 @@
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B700" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
       <c r="C700" t="s">
         <v>5</v>
@@ -10985,10 +11027,10 @@
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B701" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="C701" t="s">
         <v>5</v>
@@ -10996,10 +11038,10 @@
     </row>
     <row r="702">
       <c r="A702" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B702" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
       <c r="C702" t="s">
         <v>5</v>
@@ -11007,10 +11049,10 @@
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B703" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="C703" t="s">
         <v>5</v>
@@ -11018,10 +11060,10 @@
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B704" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="C704" t="s">
         <v>5</v>
@@ -11029,10 +11071,10 @@
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B705" t="s">
-        <v>864</v>
+        <v>841</v>
       </c>
       <c r="C705" t="s">
         <v>5</v>
@@ -11040,10 +11082,10 @@
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B706" t="s">
-        <v>864</v>
+        <v>841</v>
       </c>
       <c r="C706" t="s">
         <v>5</v>
@@ -11051,10 +11093,10 @@
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B707" t="s">
-        <v>829</v>
+        <v>863</v>
       </c>
       <c r="C707" t="s">
         <v>5</v>
@@ -11062,10 +11104,10 @@
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B708" t="s">
-        <v>829</v>
+        <v>863</v>
       </c>
       <c r="C708" t="s">
         <v>5</v>
@@ -11073,10 +11115,10 @@
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B709" t="s">
-        <v>829</v>
+        <v>863</v>
       </c>
       <c r="C709" t="s">
         <v>5</v>
@@ -11084,10 +11126,10 @@
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B710" t="s">
-        <v>831</v>
+        <v>867</v>
       </c>
       <c r="C710" t="s">
         <v>5</v>
@@ -11095,10 +11137,10 @@
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B711" t="s">
-        <v>827</v>
+        <v>867</v>
       </c>
       <c r="C711" t="s">
         <v>5</v>
@@ -11106,10 +11148,10 @@
     </row>
     <row r="712">
       <c r="A712" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B712" t="s">
-        <v>827</v>
+        <v>870</v>
       </c>
       <c r="C712" t="s">
         <v>5</v>
@@ -11117,10 +11159,10 @@
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B713" t="s">
-        <v>827</v>
+        <v>863</v>
       </c>
       <c r="C713" t="s">
         <v>5</v>
@@ -11128,10 +11170,10 @@
     </row>
     <row r="714">
       <c r="A714" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B714" t="s">
-        <v>856</v>
+        <v>841</v>
       </c>
       <c r="C714" t="s">
         <v>5</v>
@@ -11139,10 +11181,10 @@
     </row>
     <row r="715">
       <c r="A715" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B715" t="s">
-        <v>849</v>
+        <v>863</v>
       </c>
       <c r="C715" t="s">
         <v>5</v>
@@ -11150,10 +11192,10 @@
     </row>
     <row r="716">
       <c r="A716" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B716" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="C716" t="s">
         <v>5</v>
@@ -11161,10 +11203,10 @@
     </row>
     <row r="717">
       <c r="A717" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B717" t="s">
-        <v>877</v>
+        <v>845</v>
       </c>
       <c r="C717" t="s">
         <v>5</v>
@@ -11172,10 +11214,10 @@
     </row>
     <row r="718">
       <c r="A718" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B718" t="s">
-        <v>879</v>
+        <v>843</v>
       </c>
       <c r="C718" t="s">
         <v>5</v>
@@ -11183,10 +11225,10 @@
     </row>
     <row r="719">
       <c r="A719" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B719" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C719" t="s">
         <v>5</v>
@@ -11194,10 +11236,10 @@
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B720" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C720" t="s">
         <v>5</v>
@@ -11205,10 +11247,10 @@
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B721" t="s">
-        <v>879</v>
+        <v>843</v>
       </c>
       <c r="C721" t="s">
         <v>5</v>
@@ -11216,10 +11258,10 @@
     </row>
     <row r="722">
       <c r="A722" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B722" t="s">
-        <v>877</v>
+        <v>843</v>
       </c>
       <c r="C722" t="s">
         <v>5</v>
@@ -11227,10 +11269,10 @@
     </row>
     <row r="723">
       <c r="A723" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B723" t="s">
-        <v>879</v>
+        <v>843</v>
       </c>
       <c r="C723" t="s">
         <v>5</v>
@@ -11238,10 +11280,10 @@
     </row>
     <row r="724">
       <c r="A724" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B724" t="s">
-        <v>879</v>
+        <v>845</v>
       </c>
       <c r="C724" t="s">
         <v>5</v>
@@ -11249,10 +11291,10 @@
     </row>
     <row r="725">
       <c r="A725" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B725" t="s">
-        <v>877</v>
+        <v>841</v>
       </c>
       <c r="C725" t="s">
         <v>5</v>
@@ -11260,10 +11302,10 @@
     </row>
     <row r="726">
       <c r="A726" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B726" t="s">
-        <v>879</v>
+        <v>841</v>
       </c>
       <c r="C726" t="s">
         <v>5</v>
@@ -11271,10 +11313,10 @@
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B727" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="C727" t="s">
         <v>5</v>
@@ -11282,10 +11324,10 @@
     </row>
     <row r="728">
       <c r="A728" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B728" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="C728" t="s">
         <v>5</v>
@@ -11293,10 +11335,10 @@
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B729" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="C729" t="s">
         <v>5</v>
@@ -11304,10 +11346,10 @@
     </row>
     <row r="730">
       <c r="A730" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B730" t="s">
-        <v>892</v>
+        <v>863</v>
       </c>
       <c r="C730" t="s">
         <v>5</v>
@@ -11315,10 +11357,10 @@
     </row>
     <row r="731">
       <c r="A731" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B731" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C731" t="s">
         <v>5</v>
@@ -11326,10 +11368,10 @@
     </row>
     <row r="732">
       <c r="A732" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B732" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C732" t="s">
         <v>5</v>
@@ -11337,10 +11379,10 @@
     </row>
     <row r="733">
       <c r="A733" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B733" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C733" t="s">
         <v>5</v>
@@ -11348,10 +11390,10 @@
     </row>
     <row r="734">
       <c r="A734" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B734" t="s">
-        <v>879</v>
+        <v>893</v>
       </c>
       <c r="C734" t="s">
         <v>5</v>
@@ -11359,10 +11401,10 @@
     </row>
     <row r="735">
       <c r="A735" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B735" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C735" t="s">
         <v>5</v>
@@ -11370,10 +11412,10 @@
     </row>
     <row r="736">
       <c r="A736" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B736" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C736" t="s">
         <v>5</v>
@@ -11381,10 +11423,10 @@
     </row>
     <row r="737">
       <c r="A737" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B737" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C737" t="s">
         <v>5</v>
@@ -11392,10 +11434,10 @@
     </row>
     <row r="738">
       <c r="A738" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B738" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="C738" t="s">
         <v>5</v>
@@ -11403,10 +11445,10 @@
     </row>
     <row r="739">
       <c r="A739" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B739" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="C739" t="s">
         <v>5</v>
@@ -11414,10 +11456,10 @@
     </row>
     <row r="740">
       <c r="A740" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B740" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="C740" t="s">
         <v>5</v>
@@ -11425,10 +11467,10 @@
     </row>
     <row r="741">
       <c r="A741" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B741" t="s">
-        <v>906</v>
+        <v>867</v>
       </c>
       <c r="C741" t="s">
         <v>5</v>
@@ -11436,10 +11478,10 @@
     </row>
     <row r="742">
       <c r="A742" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B742" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="C742" t="s">
         <v>5</v>
@@ -11447,10 +11489,10 @@
     </row>
     <row r="743">
       <c r="A743" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B743" t="s">
-        <v>909</v>
+        <v>891</v>
       </c>
       <c r="C743" t="s">
         <v>5</v>
@@ -11458,7 +11500,7 @@
     </row>
     <row r="744">
       <c r="A744" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="B744" t="s">
         <v>906</v>
@@ -11469,7 +11511,7 @@
     </row>
     <row r="745">
       <c r="A745" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B745" t="s">
         <v>906</v>
@@ -11480,10 +11522,10 @@
     </row>
     <row r="746">
       <c r="A746" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B746" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="C746" t="s">
         <v>5</v>
@@ -11491,10 +11533,10 @@
     </row>
     <row r="747">
       <c r="A747" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B747" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="C747" t="s">
         <v>5</v>
@@ -11502,10 +11544,10 @@
     </row>
     <row r="748">
       <c r="A748" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B748" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="C748" t="s">
         <v>5</v>
@@ -11513,7 +11555,7 @@
     </row>
     <row r="749">
       <c r="A749" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B749" t="s">
         <v>906</v>
@@ -11524,10 +11566,10 @@
     </row>
     <row r="750">
       <c r="A750" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B750" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C750" t="s">
         <v>5</v>
@@ -11535,10 +11577,10 @@
     </row>
     <row r="751">
       <c r="A751" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B751" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C751" t="s">
         <v>5</v>
@@ -11546,10 +11588,10 @@
     </row>
     <row r="752">
       <c r="A752" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B752" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C752" t="s">
         <v>5</v>
@@ -11557,10 +11599,10 @@
     </row>
     <row r="753">
       <c r="A753" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B753" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="C753" t="s">
         <v>5</v>
@@ -11568,10 +11610,10 @@
     </row>
     <row r="754">
       <c r="A754" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B754" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="C754" t="s">
         <v>5</v>
@@ -11579,10 +11621,10 @@
     </row>
     <row r="755">
       <c r="A755" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B755" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
       <c r="C755" t="s">
         <v>5</v>
@@ -11590,10 +11632,10 @@
     </row>
     <row r="756">
       <c r="A756" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B756" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
       <c r="C756" t="s">
         <v>5</v>
@@ -11601,10 +11643,10 @@
     </row>
     <row r="757">
       <c r="A757" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B757" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
       <c r="C757" t="s">
         <v>5</v>
@@ -11612,10 +11654,10 @@
     </row>
     <row r="758">
       <c r="A758" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B758" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
       <c r="C758" t="s">
         <v>5</v>
@@ -11623,10 +11665,10 @@
     </row>
     <row r="759">
       <c r="A759" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B759" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
       <c r="C759" t="s">
         <v>5</v>
@@ -11634,10 +11676,10 @@
     </row>
     <row r="760">
       <c r="A760" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B760" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="C760" t="s">
         <v>5</v>
@@ -11645,10 +11687,10 @@
     </row>
     <row r="761">
       <c r="A761" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B761" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="C761" t="s">
         <v>5</v>
@@ -11656,10 +11698,10 @@
     </row>
     <row r="762">
       <c r="A762" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B762" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="C762" t="s">
         <v>5</v>
@@ -11667,10 +11709,10 @@
     </row>
     <row r="763">
       <c r="A763" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B763" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="C763" t="s">
         <v>5</v>
@@ -11678,10 +11720,10 @@
     </row>
     <row r="764">
       <c r="A764" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B764" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="C764" t="s">
         <v>5</v>
@@ -11689,10 +11731,10 @@
     </row>
     <row r="765">
       <c r="A765" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B765" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
       <c r="C765" t="s">
         <v>5</v>
@@ -11700,10 +11742,10 @@
     </row>
     <row r="766">
       <c r="A766" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B766" t="s">
-        <v>919</v>
+        <v>933</v>
       </c>
       <c r="C766" t="s">
         <v>5</v>
@@ -11711,10 +11753,10 @@
     </row>
     <row r="767">
       <c r="A767" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B767" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C767" t="s">
         <v>5</v>
@@ -11722,10 +11764,10 @@
     </row>
     <row r="768">
       <c r="A768" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B768" t="s">
-        <v>906</v>
+        <v>923</v>
       </c>
       <c r="C768" t="s">
         <v>5</v>
@@ -11733,10 +11775,10 @@
     </row>
     <row r="769">
       <c r="A769" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B769" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C769" t="s">
         <v>5</v>
@@ -11744,10 +11786,10 @@
     </row>
     <row r="770">
       <c r="A770" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B770" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C770" t="s">
         <v>5</v>
@@ -11755,10 +11797,10 @@
     </row>
     <row r="771">
       <c r="A771" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B771" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
       <c r="C771" t="s">
         <v>5</v>
@@ -11766,10 +11808,10 @@
     </row>
     <row r="772">
       <c r="A772" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B772" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
       <c r="C772" t="s">
         <v>5</v>
@@ -11777,10 +11819,10 @@
     </row>
     <row r="773">
       <c r="A773" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B773" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C773" t="s">
         <v>5</v>
@@ -11788,10 +11830,10 @@
     </row>
     <row r="774">
       <c r="A774" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B774" t="s">
-        <v>919</v>
+        <v>942</v>
       </c>
       <c r="C774" t="s">
         <v>5</v>
@@ -11799,10 +11841,10 @@
     </row>
     <row r="775">
       <c r="A775" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B775" t="s">
-        <v>919</v>
+        <v>942</v>
       </c>
       <c r="C775" t="s">
         <v>5</v>
@@ -11810,10 +11852,10 @@
     </row>
     <row r="776">
       <c r="A776" t="s">
+        <v>944</v>
+      </c>
+      <c r="B776" t="s">
         <v>945</v>
-      </c>
-      <c r="B776" t="s">
-        <v>909</v>
       </c>
       <c r="C776" t="s">
         <v>5</v>
@@ -11824,7 +11866,7 @@
         <v>946</v>
       </c>
       <c r="B777" t="s">
-        <v>906</v>
+        <v>945</v>
       </c>
       <c r="C777" t="s">
         <v>5</v>
@@ -11835,7 +11877,7 @@
         <v>947</v>
       </c>
       <c r="B778" t="s">
-        <v>906</v>
+        <v>945</v>
       </c>
       <c r="C778" t="s">
         <v>5</v>
@@ -11846,7 +11888,7 @@
         <v>948</v>
       </c>
       <c r="B779" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="C779" t="s">
         <v>5</v>
@@ -11857,7 +11899,7 @@
         <v>949</v>
       </c>
       <c r="B780" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C780" t="s">
         <v>5</v>
@@ -11868,7 +11910,7 @@
         <v>950</v>
       </c>
       <c r="B781" t="s">
-        <v>951</v>
+        <v>933</v>
       </c>
       <c r="C781" t="s">
         <v>5</v>
@@ -11876,10 +11918,10 @@
     </row>
     <row r="782">
       <c r="A782" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B782" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="C782" t="s">
         <v>5</v>
@@ -11887,10 +11929,10 @@
     </row>
     <row r="783">
       <c r="A783" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B783" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C783" t="s">
         <v>5</v>
@@ -11898,10 +11940,10 @@
     </row>
     <row r="784">
       <c r="A784" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B784" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C784" t="s">
         <v>5</v>
@@ -11909,10 +11951,10 @@
     </row>
     <row r="785">
       <c r="A785" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B785" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C785" t="s">
         <v>5</v>
@@ -11920,10 +11962,10 @@
     </row>
     <row r="786">
       <c r="A786" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B786" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
       <c r="C786" t="s">
         <v>5</v>
@@ -11931,10 +11973,10 @@
     </row>
     <row r="787">
       <c r="A787" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B787" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C787" t="s">
         <v>5</v>
@@ -11942,10 +11984,10 @@
     </row>
     <row r="788">
       <c r="A788" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B788" t="s">
-        <v>909</v>
+        <v>933</v>
       </c>
       <c r="C788" t="s">
         <v>5</v>
@@ -11953,10 +11995,10 @@
     </row>
     <row r="789">
       <c r="A789" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B789" t="s">
-        <v>919</v>
+        <v>933</v>
       </c>
       <c r="C789" t="s">
         <v>5</v>
@@ -11964,10 +12006,10 @@
     </row>
     <row r="790">
       <c r="A790" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B790" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C790" t="s">
         <v>5</v>
@@ -11975,10 +12017,10 @@
     </row>
     <row r="791">
       <c r="A791" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B791" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C791" t="s">
         <v>5</v>
@@ -11986,10 +12028,10 @@
     </row>
     <row r="792">
       <c r="A792" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B792" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
       <c r="C792" t="s">
         <v>5</v>
@@ -11997,10 +12039,10 @@
     </row>
     <row r="793">
       <c r="A793" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B793" t="s">
-        <v>906</v>
+        <v>942</v>
       </c>
       <c r="C793" t="s">
         <v>5</v>
@@ -12008,10 +12050,10 @@
     </row>
     <row r="794">
       <c r="A794" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B794" t="s">
-        <v>902</v>
+        <v>945</v>
       </c>
       <c r="C794" t="s">
         <v>5</v>
@@ -12019,10 +12061,10 @@
     </row>
     <row r="795">
       <c r="A795" t="s">
+        <v>964</v>
+      </c>
+      <c r="B795" t="s">
         <v>965</v>
-      </c>
-      <c r="B795" t="s">
-        <v>906</v>
       </c>
       <c r="C795" t="s">
         <v>5</v>
@@ -12033,7 +12075,7 @@
         <v>966</v>
       </c>
       <c r="B796" t="s">
-        <v>906</v>
+        <v>942</v>
       </c>
       <c r="C796" t="s">
         <v>5</v>
@@ -12044,7 +12086,7 @@
         <v>967</v>
       </c>
       <c r="B797" t="s">
-        <v>906</v>
+        <v>945</v>
       </c>
       <c r="C797" t="s">
         <v>5</v>
@@ -12055,7 +12097,7 @@
         <v>968</v>
       </c>
       <c r="B798" t="s">
-        <v>902</v>
+        <v>945</v>
       </c>
       <c r="C798" t="s">
         <v>5</v>
@@ -12066,7 +12108,7 @@
         <v>969</v>
       </c>
       <c r="B799" t="s">
-        <v>902</v>
+        <v>933</v>
       </c>
       <c r="C799" t="s">
         <v>5</v>
@@ -12077,7 +12119,7 @@
         <v>970</v>
       </c>
       <c r="B800" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="C800" t="s">
         <v>5</v>
@@ -12088,7 +12130,7 @@
         <v>971</v>
       </c>
       <c r="B801" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
       <c r="C801" t="s">
         <v>5</v>
@@ -12099,7 +12141,7 @@
         <v>972</v>
       </c>
       <c r="B802" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="C802" t="s">
         <v>5</v>
@@ -12110,7 +12152,7 @@
         <v>973</v>
       </c>
       <c r="B803" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C803" t="s">
         <v>5</v>
@@ -12121,7 +12163,7 @@
         <v>974</v>
       </c>
       <c r="B804" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C804" t="s">
         <v>5</v>
@@ -12132,7 +12174,7 @@
         <v>975</v>
       </c>
       <c r="B805" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C805" t="s">
         <v>5</v>
@@ -12143,7 +12185,7 @@
         <v>976</v>
       </c>
       <c r="B806" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="C806" t="s">
         <v>5</v>
@@ -12154,7 +12196,7 @@
         <v>977</v>
       </c>
       <c r="B807" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="C807" t="s">
         <v>5</v>
@@ -12165,7 +12207,7 @@
         <v>978</v>
       </c>
       <c r="B808" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="C808" t="s">
         <v>5</v>
@@ -12176,9 +12218,163 @@
         <v>979</v>
       </c>
       <c r="B809" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="C809" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="s">
+        <v>980</v>
+      </c>
+      <c r="B810" t="s">
+        <v>920</v>
+      </c>
+      <c r="C810" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="s">
+        <v>981</v>
+      </c>
+      <c r="B811" t="s">
+        <v>920</v>
+      </c>
+      <c r="C811" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="s">
+        <v>982</v>
+      </c>
+      <c r="B812" t="s">
+        <v>916</v>
+      </c>
+      <c r="C812" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="s">
+        <v>983</v>
+      </c>
+      <c r="B813" t="s">
+        <v>916</v>
+      </c>
+      <c r="C813" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="s">
+        <v>984</v>
+      </c>
+      <c r="B814" t="s">
+        <v>945</v>
+      </c>
+      <c r="C814" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="s">
+        <v>985</v>
+      </c>
+      <c r="B815" t="s">
+        <v>945</v>
+      </c>
+      <c r="C815" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="s">
+        <v>986</v>
+      </c>
+      <c r="B816" t="s">
+        <v>945</v>
+      </c>
+      <c r="C816" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="s">
+        <v>987</v>
+      </c>
+      <c r="B817" t="s">
+        <v>945</v>
+      </c>
+      <c r="C817" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="s">
+        <v>988</v>
+      </c>
+      <c r="B818" t="s">
+        <v>945</v>
+      </c>
+      <c r="C818" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="s">
+        <v>989</v>
+      </c>
+      <c r="B819" t="s">
+        <v>945</v>
+      </c>
+      <c r="C819" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="s">
+        <v>990</v>
+      </c>
+      <c r="B820" t="s">
+        <v>945</v>
+      </c>
+      <c r="C820" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="s">
+        <v>991</v>
+      </c>
+      <c r="B821" t="s">
+        <v>945</v>
+      </c>
+      <c r="C821" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="s">
+        <v>992</v>
+      </c>
+      <c r="B822" t="s">
+        <v>942</v>
+      </c>
+      <c r="C822" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="s">
+        <v>993</v>
+      </c>
+      <c r="B823" t="s">
+        <v>942</v>
+      </c>
+      <c r="C823" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Income Bond.xlsx
+++ b/data/GreatLink/GreatLink Income Bond.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid26254"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid680950"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
